--- a/temp/ReporteVerificacionProductos.xlsx
+++ b/temp/ReporteVerificacionProductos.xlsx
@@ -491,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:Q276"/>
+  <dimension ref="B1:Q277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="C5" s="9" t="n">
-        <v>45217.6848960419</v>
+        <v>45230.42935067033</v>
       </c>
       <c r="D5" s="5" t="n"/>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>101698</t>
+          <t>101707</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FACUSASETDEOLLASFLAM</t>
+          <t>FACUSASETDESALSEROSD</t>
         </is>
       </c>
     </row>
@@ -981,12 +981,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>101707</t>
+          <t>101723</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FACUSASETDESALSEROSD</t>
+          <t>FACUSATENEDORJUMBOM/</t>
         </is>
       </c>
     </row>
@@ -1001,12 +1001,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>101723</t>
+          <t>101858</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FACUSATENEDORJUMBOM/</t>
+          <t>KELLOGG'SCEREALCHOCO</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>101858</t>
+          <t>101951</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KELLOGG'SCEREALCHOCO</t>
+          <t>ELVIVESH+ACCOLOR-VIV</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>101951</t>
+          <t>102438</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ELVIVESH+ACCOLOR-VIV</t>
+          <t>VIRUTEXDESATORADORDE</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>102438</t>
+          <t>102571</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>VIRUTEXDESATORADORDE</t>
+          <t>SANTACRUZVELAVOTIVAG</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1081,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>102571</t>
+          <t>104545</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SANTACRUZVELAVOTIVAG</t>
+          <t>DOSCABALLOSDURAZNOSE</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>104545</t>
+          <t>104924</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>DOSCABALLOSDURAZNOSE</t>
+          <t>ARIELDETLIQUIDOCONCE</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>104924</t>
+          <t>104988</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ARIELDETLIQUIDOCONCE</t>
+          <t>BOLSAT'SHIRTTAP4-14-</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1141,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>104988</t>
+          <t>104989</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>BOLSAT'SHIRTTAP4-14-</t>
+          <t>BOLSAT'SHIRTTAP4-17-</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>104989</t>
+          <t>104990</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>BOLSAT'SHIRTTAP4-17-</t>
+          <t>BOLSAT'SHIRTTAP4-20-</t>
         </is>
       </c>
     </row>
@@ -1181,12 +1181,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>104990</t>
+          <t>105176</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>BOLSAT'SHIRTTAP4-20-</t>
+          <t>ALAMOSVINOCABERNETSA</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>105176</t>
+          <t>105429</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ALAMOSVINOCABERNETSA</t>
+          <t>BALLERINASHHERBALDOY</t>
         </is>
       </c>
     </row>
@@ -1221,12 +1221,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>105429</t>
+          <t>105436</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>BALLERINASHHERBALDOY</t>
+          <t>BALLERINASHS/SALGRAN</t>
         </is>
       </c>
     </row>
@@ -1241,12 +1241,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>105436</t>
+          <t>105872</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>BALLERINASHS/SALGRAN</t>
+          <t>BASAJUEGODECOLADORES</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>105872</t>
+          <t>106369</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>BASAJUEGODECOLADORES</t>
+          <t>REYBALDECOMERC.1GLC/</t>
         </is>
       </c>
     </row>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106369</t>
+          <t>106724</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>REYBALDECOMERC.1GLC/</t>
+          <t>REYMESACUADRARAADA</t>
         </is>
       </c>
     </row>
@@ -1301,12 +1301,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>106724</t>
+          <t>106822</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>REYMESACUADRARAADA</t>
+          <t>REYCOMODAGIGANTE5PIS</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1321,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>106822</t>
+          <t>106824</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>REYCOMODAGIGANTE5PIS</t>
+          <t>REYCOMODAGIGANTE6PIS</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>106824</t>
+          <t>106825</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>106825</t>
+          <t>106830</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>REYCOMODAGIGANTE6PIS</t>
+          <t>REYCOMODASUPERGIGANT</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1381,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>106830</t>
+          <t>106894</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>REYCOMODASUPERGIGANT</t>
+          <t>ALMENDRAAMERICANA22.</t>
         </is>
       </c>
     </row>
@@ -1401,12 +1401,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>106894</t>
+          <t>106897</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ALMENDRAAMERICANA22.</t>
+          <t>CANELAH1</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>106897</t>
+          <t>106899</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CANELAH1</t>
+          <t>CIRUELA30/40SANTISFR</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>106899</t>
+          <t>106900</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>CIRUELA30/40SANTISFR</t>
+          <t>CLAVODEOLORDEMADAGAS</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>106900</t>
+          <t>106902</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CLAVODEOLORDEMADAGAS</t>
+          <t>COMINOMOLIDO</t>
         </is>
       </c>
     </row>
@@ -1481,12 +1481,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>106902</t>
+          <t>106905</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>COMINOMOLIDO</t>
+          <t>HOJALAURELESPAÑOL</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>106905</t>
+          <t>106906</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>HOJALAURELESPAÑOL</t>
+          <t>HONGOSECO</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>106906</t>
+          <t>106907</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>HONGOSECO</t>
+          <t>MANISALADO</t>
         </is>
       </c>
     </row>
@@ -1541,12 +1541,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>106907</t>
+          <t>106908</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MANISALADO</t>
+          <t>NUECESPELADAS</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1561,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>106908</t>
+          <t>106909</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>NUECESPELADAS</t>
+          <t>OREGANOMOLIDOPIZZA</t>
         </is>
       </c>
     </row>
@@ -1581,12 +1581,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>106909</t>
+          <t>106910</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>OREGANOMOLIDOPIZZA</t>
+          <t>OREGANOZARANDEADOCHI</t>
         </is>
       </c>
     </row>
@@ -1601,12 +1601,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>106910</t>
+          <t>106913</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>OREGANOZARANDEADOCHI</t>
+          <t>PASASULTANINAGDE/JUM</t>
         </is>
       </c>
     </row>
@@ -1621,12 +1621,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>106913</t>
+          <t>106914</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>PASASULTANINAGDE/JUM</t>
+          <t>PIMIENTANEGRAMOLIDA</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1641,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>106914</t>
+          <t>107037</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>PIMIENTANEGRAMOLIDA</t>
+          <t>OCUISINEMOLDEREDONDO</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1661,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>107037</t>
+          <t>107075</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>OCUISINEMOLDEREDONDO</t>
+          <t>VINODBOLOPROFESIONAL</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1681,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>107075</t>
+          <t>107135</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>VINODBOLOPROFESIONAL</t>
+          <t>FACUSAPRENSADORDEPAP</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1701,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>107135</t>
+          <t>107138</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FACUSAPRENSADORDEPAP</t>
+          <t>FACUSACUCHILLOEXTRAF</t>
         </is>
       </c>
     </row>
@@ -1721,12 +1721,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>107138</t>
+          <t>107145</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>FACUSACUCHILLOEXTRAF</t>
+          <t>FACUSACUCHARASPAGUET</t>
         </is>
       </c>
     </row>
@@ -1741,12 +1741,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>107145</t>
+          <t>107153</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FACUSACUCHARASPAGUET</t>
+          <t>FACUSAHERVIDORINFINI</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1761,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>107153</t>
+          <t>109410</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>FACUSAHERVIDORINFINI</t>
+          <t>FACUSABOLOACEROINOX</t>
         </is>
       </c>
     </row>
@@ -1781,12 +1781,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>109410</t>
+          <t>109524</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>FACUSABOLOACEROINOX</t>
+          <t>KATABOOM CHICLE SURT</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>109524</t>
+          <t>109703</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>KATABOOM CHICLE SURT</t>
+          <t>GAMBRINUSFRIJOLENSAL</t>
         </is>
       </c>
     </row>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ERROR EN CÓDIGO DE BARRAS</t>
+          <t>ERROR EN UNIDADES DE CONVERSIÓN - U. / 1.0 / Emp.18</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>109703</t>
+          <t>102485</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>GAMBRINUSFRIJOLENSAL</t>
+          <t>VIRUTEXFIBRAESPONJAA</t>
         </is>
       </c>
     </row>
@@ -1836,17 +1836,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ERROR EN CÓDIGO DE BARRAS</t>
+          <t>ERROR EN UNIDADES DE CONVERSIÓN - U. / 1.0 / Emp.40</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>109795</t>
+          <t>108930</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>DOVEDESODROLLONINSIB</t>
+          <t>DROWAGELANTIBACTERIA</t>
         </is>
       </c>
     </row>
@@ -1856,17 +1856,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ERROR EN CÓDIGO SUNAT</t>
+          <t>ERROR EN UNIDADES DE CONVERSIÓN - Emp.30 / 1.875 / Emp.16</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>110391</t>
+          <t>110228</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>FACUSACOMBOPRENSADOR</t>
+          <t>DONOFRIOZOORPRESA70M</t>
         </is>
       </c>
     </row>
@@ -1876,17 +1876,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ERROR EN CÓDIGO SUNAT</t>
+          <t>ERROR EN UNIDADES DE CONVERSIÓN - Emp.48 / 8.0 / Emp.6</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>111883</t>
+          <t>110511</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>NESTLECOBERTURADECHO</t>
+          <t>VICTORIAGALLETAMINIT</t>
         </is>
       </c>
     </row>
@@ -1896,17 +1896,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>NO TIENE ASIGNADO PROVEEDOR</t>
+          <t>ERROR EN UNIDADES DE CONVERSIÓN - U. / 1.0 / Emp.12</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>110607</t>
+          <t>112141</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>KRYZPOSNACKSSABORCRE</t>
+          <t>COLGATEENJUAGUEPLAXS</t>
         </is>
       </c>
     </row>
@@ -1916,17 +1916,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>NO TIENE ASIGNADO PROVEEDOR</t>
+          <t>ERROR EN UNIDADES DE CONVERSIÓN - U. / 12.0 / U</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>110608</t>
+          <t>112152</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>BARCELORONIMPERIALON</t>
+          <t>VESTONLIMPIATAPIZ480</t>
         </is>
       </c>
     </row>
@@ -1936,17 +1936,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>NO TIENE ASIGNADO PROVEEDOR</t>
+          <t>ERROR EN CÓDIGO SUNAT</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>110609</t>
+          <t>110391</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>BARCELOGRANAÑEJODARK</t>
+          <t>FACUSACOMBOPRENSADOR</t>
         </is>
       </c>
     </row>
@@ -1956,17 +1956,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>NO TIENE ASIGNADO PROVEEDOR</t>
+          <t>ERROR EN CÓDIGO SUNAT</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>110610</t>
+          <t>111883</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>BARCELORONDOMINICANO</t>
+          <t>NESTLECOBERTURADECHO</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>110611</t>
+          <t>110607</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>WHITLEYNEILLVODKA700</t>
+          <t>KRYZPOSNACKSSABORCRE</t>
         </is>
       </c>
     </row>
@@ -2001,12 +2001,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>110613</t>
+          <t>110608</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>KRYZPOSNACKSSABORCRE</t>
+          <t>BARCELORONIMPERIALON</t>
         </is>
       </c>
     </row>
@@ -2021,12 +2021,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>110614</t>
+          <t>110609</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>FAMILYGUARDAEDESINFE</t>
+          <t>BARCELOGRANAÑEJODARK</t>
         </is>
       </c>
     </row>
@@ -2041,12 +2041,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>110615</t>
+          <t>110610</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>FAMILYGUARDAEDESINFE</t>
+          <t>BARCELORONDOMINICANO</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2061,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>110616</t>
+          <t>110611</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>DONLUCHOGELATINAFRES</t>
+          <t>WHITLEYNEILLVODKA700</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2081,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>110617</t>
+          <t>110613</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>DONLUCHOGELATINANARA</t>
+          <t>KRYZPOSNACKSSABORCRE</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>110618</t>
+          <t>110614</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>DON LUCHO GELATINA P</t>
+          <t>FAMILYGUARDAEDESINFE</t>
         </is>
       </c>
     </row>
@@ -2121,12 +2121,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>110621</t>
+          <t>110615</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>REYBALDE1LCTAPAYASAP</t>
+          <t>FAMILYGUARDAEDESINFE</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>110626</t>
+          <t>110616</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MINIGELATINASURTIDAS</t>
+          <t>DONLUCHOGELATINAFRES</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2161,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>110628</t>
+          <t>110617</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>COLOMBINAGRISSLYGOMI</t>
+          <t>DONLUCHOGELATINANARA</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>108573</t>
+          <t>110618</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>CANASTA BASICA TRUJI</t>
+          <t>DON LUCHO GELATINA P</t>
         </is>
       </c>
     </row>
@@ -2201,12 +2201,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>108574</t>
+          <t>110621</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>CANASTAFAMILIAR</t>
+          <t>REYBALDE1LCTAPAYASAP</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>108575</t>
+          <t>110626</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>CANASTAFAMILIARTRUJI</t>
+          <t>MINIGELATINASURTIDAS</t>
         </is>
       </c>
     </row>
@@ -2241,12 +2241,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>108576</t>
+          <t>110628</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>CANASTAFAMILIARTRUJI</t>
+          <t>COLOMBINAGRISSLYGOMI</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2261,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>108577</t>
+          <t>108573</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>CANASTAPREMIUTRUJILL</t>
+          <t>CANASTA BASICA TRUJI</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>108578</t>
+          <t>108574</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>CANASTADORADATRUJILL</t>
+          <t>CANASTAFAMILIAR</t>
         </is>
       </c>
     </row>
@@ -2301,12 +2301,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>108579</t>
+          <t>108575</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>CANASTAPREMIUNTRUJIL</t>
+          <t>CANASTAFAMILIARTRUJI</t>
         </is>
       </c>
     </row>
@@ -2321,12 +2321,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>108580</t>
+          <t>108576</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>CANASTAFAMILIARDONOF</t>
+          <t>CANASTAFAMILIARTRUJI</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>108581</t>
+          <t>108577</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>CANASTAPREMIUNDONOFR</t>
+          <t>CANASTAPREMIUTRUJILL</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>108582</t>
+          <t>108578</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>CANASTAFAMILIARTODIN</t>
+          <t>CANASTADORADATRUJILL</t>
         </is>
       </c>
     </row>
@@ -2381,12 +2381,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>108583</t>
+          <t>108579</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>CANASTAPREMIUNTODINN</t>
+          <t>CANASTAPREMIUNTRUJIL</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2401,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>108593</t>
+          <t>108580</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>TRUJILLOARVEJA500G</t>
+          <t>CANASTAFAMILIARDONOF</t>
         </is>
       </c>
     </row>
@@ -2421,12 +2421,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>108628</t>
+          <t>108581</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>CANASTAFAMILIARTRUJI</t>
+          <t>CANASTAPREMIUNDONOFR</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>108629</t>
+          <t>108582</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>CANASTAPREMIUMTRUJIL</t>
+          <t>CANASTAFAMILIARTODIN</t>
         </is>
       </c>
     </row>
@@ -2461,12 +2461,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>108630</t>
+          <t>108583</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>CANASTABASICATRUJILL</t>
+          <t>CANASTAPREMIUNTODINN</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>108699</t>
+          <t>108593</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>TRUJILLOHIELOENCUBIT</t>
+          <t>TRUJILLOARVEJA500G</t>
         </is>
       </c>
     </row>
@@ -2501,12 +2501,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>109483</t>
+          <t>108628</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>BONIF.CLOROX LEJIA T</t>
+          <t>CANASTAFAMILIARTRUJI</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>109484</t>
+          <t>108629</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>BONIFCLOROXLEJIATRAD</t>
+          <t>CANASTAPREMIUMTRUJIL</t>
         </is>
       </c>
     </row>
@@ -2541,12 +2541,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>110188</t>
+          <t>108630</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>BONIFTRUJILLOPANETON</t>
+          <t>CANASTABASICATRUJILL</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>110215</t>
+          <t>108699</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>CANASTAPREMIUNTRUJIL</t>
+          <t>TRUJILLOHIELOENCUBIT</t>
         </is>
       </c>
     </row>
@@ -2581,12 +2581,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>104330</t>
+          <t>109483</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>CONCEPTSSOPORTEACRIL</t>
+          <t>BONIF.CLOROX LEJIA T</t>
         </is>
       </c>
     </row>
@@ -2601,12 +2601,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>104333</t>
+          <t>109484</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>CONCEPTSSOPORTEACRIL</t>
+          <t>BONIFCLOROXLEJIATRAD</t>
         </is>
       </c>
     </row>
@@ -2621,12 +2621,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>104338</t>
+          <t>110188</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SANTINICHRISTMASADOR</t>
+          <t>BONIFTRUJILLOPANETON</t>
         </is>
       </c>
     </row>
@@ -2641,12 +2641,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>104348</t>
+          <t>110215</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>CONCEPTSCUADRODECO</t>
+          <t>CANASTAPREMIUNTRUJIL</t>
         </is>
       </c>
     </row>
@@ -2661,12 +2661,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>104349</t>
+          <t>104330</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>CONCEPTSFIG.AFRICANA</t>
+          <t>CONCEPTSSOPORTEACRIL</t>
         </is>
       </c>
     </row>
@@ -2681,12 +2681,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>104354</t>
+          <t>104333</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>CONCEPTSFLORDECORATI</t>
+          <t>CONCEPTSSOPORTEACRIL</t>
         </is>
       </c>
     </row>
@@ -2701,12 +2701,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>104356</t>
+          <t>104338</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>CONCEPTSPORTARETRATO</t>
+          <t>SANTINICHRISTMASADOR</t>
         </is>
       </c>
     </row>
@@ -2721,12 +2721,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>104357</t>
+          <t>104348</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>CONCEPTSSUJETALIBRO</t>
+          <t>CONCEPTSCUADRODECO</t>
         </is>
       </c>
     </row>
@@ -2741,12 +2741,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>105099</t>
+          <t>104349</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>BARDINETLICORDEMENTA</t>
+          <t>CONCEPTSFIG.AFRICANA</t>
         </is>
       </c>
     </row>
@@ -2761,12 +2761,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>105100</t>
+          <t>104354</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>CACHAZA51BRAZILLICOR</t>
+          <t>CONCEPTSFLORDECORATI</t>
         </is>
       </c>
     </row>
@@ -2781,12 +2781,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>105101</t>
+          <t>104356</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>CAMPARIBITTERLICORDE</t>
+          <t>CONCEPTSPORTARETRATO</t>
         </is>
       </c>
     </row>
@@ -2801,12 +2801,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>105106</t>
+          <t>104357</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SHERIDANSLICORORIGIN</t>
+          <t>CONCEPTSSUJETALIBRO</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>105351</t>
+          <t>105099</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>TRUJILLOFILETEDECABA</t>
+          <t>BARDINETLICORDEMENTA</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>105512</t>
+          <t>105100</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>REALFILETEATUNAGSINS</t>
+          <t>CACHAZA51BRAZILLICOR</t>
         </is>
       </c>
     </row>
@@ -2861,12 +2861,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>107001</t>
+          <t>105101</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>CONCEPTSUTENSILIOSPA</t>
+          <t>CAMPARIBITTERLICORDE</t>
         </is>
       </c>
     </row>
@@ -2881,12 +2881,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>107013</t>
+          <t>105106</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>C&amp;ICHALTRAMASNEGRO00</t>
+          <t>SHERIDANSLICORORIGIN</t>
         </is>
       </c>
     </row>
@@ -2901,12 +2901,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>107522</t>
+          <t>105351</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>CONCEPTSPASTILLERO10</t>
+          <t>TRUJILLOFILETEDECABA</t>
         </is>
       </c>
     </row>
@@ -2921,12 +2921,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>107523</t>
+          <t>105512</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>CONCEPTSFLORERO50CM</t>
+          <t>REALFILETEATUNAGSINS</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>107525</t>
+          <t>107001</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>CONCEPTSMANTEQUILLER</t>
+          <t>CONCEPTSUTENSILIOSPA</t>
         </is>
       </c>
     </row>
@@ -2961,12 +2961,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>107707</t>
+          <t>107013</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>FREIXENETESPUMANTEM</t>
+          <t>C&amp;ICHALTRAMASNEGRO00</t>
         </is>
       </c>
     </row>
@@ -2981,12 +2981,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>107709</t>
+          <t>107522</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>BIONDIPISCOACHOLADO5</t>
+          <t>CONCEPTSPASTILLERO10</t>
         </is>
       </c>
     </row>
@@ -3001,12 +3001,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>107711</t>
+          <t>107523</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>BRANDYDEJEREZFUNDADO</t>
+          <t>CONCEPTSFLORERO50CM</t>
         </is>
       </c>
     </row>
@@ -3021,12 +3021,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>108008</t>
+          <t>107525</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>BOHEMIA SET COPAS DE</t>
+          <t>CONCEPTSMANTEQUILLER</t>
         </is>
       </c>
     </row>
@@ -3041,12 +3041,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>108010</t>
+          <t>107707</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>CONCEPTS PEONIA ROS-</t>
+          <t>FREIXENETESPUMANTEM</t>
         </is>
       </c>
     </row>
@@ -3061,12 +3061,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>108012</t>
+          <t>107709</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>TOSKANASUJETADORPARA</t>
+          <t>BIONDIPISCOACHOLADO5</t>
         </is>
       </c>
     </row>
@@ -3081,12 +3081,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>108016</t>
+          <t>107711</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>CILINDROVACIODEALCOH</t>
+          <t>BRANDYDEJEREZFUNDADO</t>
         </is>
       </c>
     </row>
@@ -3101,12 +3101,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>108415</t>
+          <t>108008</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>KANKUNRONDURAZNO1L</t>
+          <t>BOHEMIA SET COPAS DE</t>
         </is>
       </c>
     </row>
@@ -3121,12 +3121,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>108420</t>
+          <t>108010</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>KIEVVODKA1L</t>
+          <t>CONCEPTS PEONIA ROS-</t>
         </is>
       </c>
     </row>
@@ -3141,12 +3141,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>108445</t>
+          <t>108012</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>NESTLECHOCOLATESUBLI</t>
+          <t>TOSKANASUJETADORPARA</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>108510</t>
+          <t>108016</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>FACUSACUCHARASPAGUET</t>
+          <t>CILINDROVACIODEALCOH</t>
         </is>
       </c>
     </row>
@@ -3181,12 +3181,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>108537</t>
+          <t>108415</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>FACUSACUCHILLODECOCI</t>
+          <t>KANKUNRONDURAZNO1L</t>
         </is>
       </c>
     </row>
@@ -3201,12 +3201,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>108553</t>
+          <t>108420</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ISANAPALETAPARAPIES</t>
+          <t>KIEVVODKA1L</t>
         </is>
       </c>
     </row>
@@ -3221,12 +3221,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>108555</t>
+          <t>108445</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>NIVEAFORMENSILVERPRO</t>
+          <t>NESTLECHOCOLATESUBLI</t>
         </is>
       </c>
     </row>
@@ -3241,12 +3241,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>108586</t>
+          <t>108510</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ELCHIMBOTANOARROZNIR</t>
+          <t>FACUSACUCHARASPAGUET</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3261,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>108632</t>
+          <t>108537</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MR MUSCULO LIQ CITRU</t>
+          <t>FACUSACUCHILLODECOCI</t>
         </is>
       </c>
     </row>
@@ -3281,12 +3281,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>108633</t>
+          <t>108553</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>NUTRICANALIMBALANCAD</t>
+          <t>ISANAPALETAPARAPIES</t>
         </is>
       </c>
     </row>
@@ -3301,12 +3301,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>108641</t>
+          <t>108555</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>NESCAFEKIRMA</t>
+          <t>NIVEAFORMENSILVERPRO</t>
         </is>
       </c>
     </row>
@@ -3321,12 +3321,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>108711</t>
+          <t>108586</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>HELLO KITTY TOALLA H</t>
+          <t>ELCHIMBOTANOARROZNIR</t>
         </is>
       </c>
     </row>
@@ -3341,12 +3341,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>108712</t>
+          <t>108632</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>HELLO KITTY TOALLA H</t>
+          <t>MR MUSCULO LIQ CITRU</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>108713</t>
+          <t>108633</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>HELLO KITTY TOALLA H</t>
+          <t>NUTRICANALIMBALANCAD</t>
         </is>
       </c>
     </row>
@@ -3381,12 +3381,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>108791</t>
+          <t>108641</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ETERNAGUANTEANTIDESL</t>
+          <t>NESCAFEKIRMA</t>
         </is>
       </c>
     </row>
@@ -3401,12 +3401,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>108799</t>
+          <t>108711</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>PANTENESH+ACRIZOSDEF</t>
+          <t>HELLO KITTY TOALLA H</t>
         </is>
       </c>
     </row>
@@ -3421,12 +3421,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>108800</t>
+          <t>108712</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>PANTENESH+ACRESTAURA</t>
+          <t>HELLO KITTY TOALLA H</t>
         </is>
       </c>
     </row>
@@ -3441,12 +3441,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>108803</t>
+          <t>108713</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>H&amp;SSHHIDRATACIÓNACEI</t>
+          <t>HELLO KITTY TOALLA H</t>
         </is>
       </c>
     </row>
@@ -3461,12 +3461,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>108834</t>
+          <t>108791</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>BIOEXPERTSHKERATINA3</t>
+          <t>ETERNAGUANTEANTIDESL</t>
         </is>
       </c>
     </row>
@@ -3481,12 +3481,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>108835</t>
+          <t>108799</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>SAVITALSHMULTIOLEOS5</t>
+          <t>PANTENESH+ACRIZOSDEF</t>
         </is>
       </c>
     </row>
@@ -3501,12 +3501,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>108836</t>
+          <t>108800</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>SEDALSHCARBONACT+PEO</t>
+          <t>PANTENESH+ACRESTAURA</t>
         </is>
       </c>
     </row>
@@ -3521,12 +3521,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>108839</t>
+          <t>108803</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>SAVITALJABONALMENDRA</t>
+          <t>H&amp;SSHHIDRATACIÓNACEI</t>
         </is>
       </c>
     </row>
@@ -3541,12 +3541,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>108879</t>
+          <t>108834</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>YOLEITYOGURTNATURAL1</t>
+          <t>BIOEXPERTSHKERATINA3</t>
         </is>
       </c>
     </row>
@@ -3561,12 +3561,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>108886</t>
+          <t>108835</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>FACUSABLISTERDECUCHI</t>
+          <t>SAVITALSHMULTIOLEOS5</t>
         </is>
       </c>
     </row>
@@ -3581,12 +3581,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>108893</t>
+          <t>108836</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>FACUSABLISTERDEPIZZA</t>
+          <t>SEDALSHCARBONACT+PEO</t>
         </is>
       </c>
     </row>
@@ -3601,12 +3601,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>108990</t>
+          <t>108839</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>CARTAVIORONBLACK1.75</t>
+          <t>SAVITALJABONALMENDRA</t>
         </is>
       </c>
     </row>
@@ -3621,12 +3621,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>109002</t>
+          <t>108879</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>TEQUILA1800REPOSADO7</t>
+          <t>YOLEITYOGURTNATURAL1</t>
         </is>
       </c>
     </row>
@@ -3641,12 +3641,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>109004</t>
+          <t>108886</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>TEQUILA1800ESSENTIAL</t>
+          <t>FACUSABLISTERDECUCHI</t>
         </is>
       </c>
     </row>
@@ -3661,12 +3661,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>109026</t>
+          <t>108893</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>REYMESAROBLE80x80</t>
+          <t>FACUSABLISTERDEPIZZA</t>
         </is>
       </c>
     </row>
@@ -3681,12 +3681,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>109154</t>
+          <t>108990</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ILKOSARTENWOKANTIADH</t>
+          <t>CARTAVIORONBLACK1.75</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3701,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>109189</t>
+          <t>109002</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>FACUSA SARTEN WOK NO</t>
+          <t>TEQUILA1800REPOSADO7</t>
         </is>
       </c>
     </row>
@@ -3721,12 +3721,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>109191</t>
+          <t>109004</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>FACUSA BATIDOR ACERO</t>
+          <t>TEQUILA1800ESSENTIAL</t>
         </is>
       </c>
     </row>
@@ -3741,12 +3741,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>109267</t>
+          <t>109026</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ILKOESPATULAPESCADOS</t>
+          <t>REYMESAROBLE80x80</t>
         </is>
       </c>
     </row>
@@ -3761,12 +3761,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>109268</t>
+          <t>109154</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ILKOMACHACADORDEPAPA</t>
+          <t>ILKOSARTENWOKANTIADH</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>109269</t>
+          <t>109189</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ILKOPALETAMULTIUSOSI</t>
+          <t>FACUSA SARTEN WOK NO</t>
         </is>
       </c>
     </row>
@@ -3801,12 +3801,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>109270</t>
+          <t>109191</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>ILKOPORCIONADORDEHEL</t>
+          <t>FACUSA BATIDOR ACERO</t>
         </is>
       </c>
     </row>
@@ -3821,12 +3821,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>109271</t>
+          <t>109267</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>ILKORALLADORMANUALNE</t>
+          <t>ILKOESPATULAPESCADOS</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>109272</t>
+          <t>109268</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>ILKOMATDESILICONAREP</t>
+          <t>ILKOMACHACADORDEPAPA</t>
         </is>
       </c>
     </row>
@@ -3861,12 +3861,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>109815</t>
+          <t>109269</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>WINTERSCOBERTURADECH</t>
+          <t>ILKOPALETAMULTIUSOSI</t>
         </is>
       </c>
     </row>
@@ -3881,12 +3881,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>109829</t>
+          <t>109270</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CAMPONUESTROLECHEFOR</t>
+          <t>ILKOPORCIONADORDEHEL</t>
         </is>
       </c>
     </row>
@@ -3901,12 +3901,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>110155</t>
+          <t>109271</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>KUSIMERMELADADEMARAC</t>
+          <t>ILKORALLADORMANUALNE</t>
         </is>
       </c>
     </row>
@@ -3921,12 +3921,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>110392</t>
+          <t>109272</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>FACUSACOMBOPRENSADOR</t>
+          <t>ILKOMATDESILICONAREP</t>
         </is>
       </c>
     </row>
@@ -3941,12 +3941,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>110396</t>
+          <t>109815</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>FACUSAJGODESARTENNOV</t>
+          <t>WINTERSCOBERTURADECH</t>
         </is>
       </c>
     </row>
@@ -3961,12 +3961,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>700018</t>
+          <t>109829</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>BATERIADELITIO36V</t>
+          <t>CAMPONUESTROLECHEFOR</t>
         </is>
       </c>
     </row>
@@ -3981,12 +3981,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>960047</t>
+          <t>110155</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>GASTOSDESUMINISTROS</t>
+          <t>KUSIMERMELADADEMARAC</t>
         </is>
       </c>
     </row>
@@ -4001,12 +4001,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>110629</t>
+          <t>110392</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>GLORIAYOGURTYOGUITOF</t>
+          <t>FACUSACOMBOPRENSADOR</t>
         </is>
       </c>
     </row>
@@ -4021,12 +4021,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>110630</t>
+          <t>110396</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>GLORIAYOGURTYOGUITOV</t>
+          <t>FACUSAJGODESARTENNOV</t>
         </is>
       </c>
     </row>
@@ -4041,12 +4041,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>110631</t>
+          <t>700018</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>GLORIAYOGURTGRIEGOFR</t>
+          <t>BATERIADELITIO36V</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4061,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>110632</t>
+          <t>960047</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>GLORIAYOGURTGRIEGONA</t>
+          <t>GASTOSDESUMINISTROS</t>
         </is>
       </c>
     </row>
@@ -4081,12 +4081,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>101125</t>
+          <t>110629</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ADAMSBUBBALOOZOMBI70</t>
+          <t>GLORIAYOGURTYOGUITOF</t>
         </is>
       </c>
     </row>
@@ -4101,12 +4101,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>101129</t>
+          <t>110630</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>CLORETSCARAMELOMINTS</t>
+          <t>GLORIAYOGURTYOGUITOV</t>
         </is>
       </c>
     </row>
@@ -4121,12 +4121,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>102117</t>
+          <t>110631</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>GLORIABEBIDADURAZNO1</t>
+          <t>GLORIAYOGURTGRIEGOFR</t>
         </is>
       </c>
     </row>
@@ -4141,12 +4141,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>102506</t>
+          <t>110632</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>VIRUTEXBOLSAPBASURA1</t>
+          <t>GLORIAYOGURTGRIEGONA</t>
         </is>
       </c>
     </row>
@@ -4161,12 +4161,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>103854</t>
+          <t>101125</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>HUGGIESPAÑALNATURALC</t>
+          <t>ADAMSBUBBALOOZOMBI70</t>
         </is>
       </c>
     </row>
@@ -4181,12 +4181,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>106149</t>
+          <t>101129</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>SEDALSHBOMBAARGAN340</t>
+          <t>CLORETSCARAMELOMINTS</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>106166</t>
+          <t>102117</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>SEDALSH+ACCERAMIDAS3</t>
+          <t>GLORIABEBIDADURAZNO1</t>
         </is>
       </c>
     </row>
@@ -4221,12 +4221,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>106200</t>
+          <t>102506</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>MCCOLLINSFILTRANTETE</t>
+          <t>VIRUTEXBOLSAPBASURA1</t>
         </is>
       </c>
     </row>
@@ -4241,12 +4241,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>106408</t>
+          <t>103854</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>REYCUBIERTOSPARAENSA</t>
+          <t>HUGGIESPAÑALNATURALC</t>
         </is>
       </c>
     </row>
@@ -4261,12 +4261,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>106552</t>
+          <t>106149</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>REYTAPERBIOFOODRECTD</t>
+          <t>SEDALSHBOMBAARGAN340</t>
         </is>
       </c>
     </row>
@@ -4281,12 +4281,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>106807</t>
+          <t>106166</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>REYCESTOFRESH</t>
+          <t>SEDALSH+ACCERAMIDAS3</t>
         </is>
       </c>
     </row>
@@ -4301,12 +4301,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>107787</t>
+          <t>106200</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>SEDALSHAMPOORIZOSDEF</t>
+          <t>MCCOLLINSFILTRANTETE</t>
         </is>
       </c>
     </row>
@@ -4321,12 +4321,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>108117</t>
+          <t>106408</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>ILKOPELADORVERTICALB</t>
+          <t>REYCUBIERTOSPARAENSA</t>
         </is>
       </c>
     </row>
@@ -4341,12 +4341,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>108597</t>
+          <t>106552</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>LAIVELECHECHIQUITARR</t>
+          <t>REYTAPERBIOFOODRECTD</t>
         </is>
       </c>
     </row>
@@ -4361,12 +4361,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>110635</t>
+          <t>106807</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>UMSHAESENCIADEVAINIL</t>
+          <t>REYCESTOFRESH</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4381,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>110637</t>
+          <t>107787</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>TAZZLIMPIATODOBEBE90</t>
+          <t>SEDALSHAMPOORIZOSDEF</t>
         </is>
       </c>
     </row>
@@ -4401,12 +4401,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>110639</t>
+          <t>108117</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>LUAALCOHOLENGEL1L</t>
+          <t>ILKOPELADORVERTICALB</t>
         </is>
       </c>
     </row>
@@ -4421,12 +4421,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>110640</t>
+          <t>108597</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>MONCLERBIALCOHOLENGE</t>
+          <t>LAIVELECHECHIQUITARR</t>
         </is>
       </c>
     </row>
@@ -4441,12 +4441,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>110641</t>
+          <t>110635</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>LÚA JABON LIQUIDO DE</t>
+          <t>UMSHAESENCIADEVAINIL</t>
         </is>
       </c>
     </row>
@@ -4461,12 +4461,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>110642</t>
+          <t>110637</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>LÚAJABONLIQUIDODETOC</t>
+          <t>TAZZLIMPIATODOBEBE90</t>
         </is>
       </c>
     </row>
@@ -4481,12 +4481,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>110643</t>
+          <t>110639</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>LÚAJABONLIQUIDODETOC</t>
+          <t>LUAALCOHOLENGEL1L</t>
         </is>
       </c>
     </row>
@@ -4501,12 +4501,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>110644</t>
+          <t>110640</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>VESTONSILICONAAUTOBR</t>
+          <t>MONCLERBIALCOHOLENGE</t>
         </is>
       </c>
     </row>
@@ -4521,10 +4521,14 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>110645</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr"/>
+          <t>110641</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>LÚA JABON LIQUIDO DE</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="B208" t="n">
@@ -4537,12 +4541,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>110646</t>
+          <t>110642</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>VESTONCREMALIMPIADOR</t>
+          <t>LÚAJABONLIQUIDODETOC</t>
         </is>
       </c>
     </row>
@@ -4557,12 +4561,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>110647</t>
+          <t>110643</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>VESTONCREMALIMPIADOR</t>
+          <t>LÚAJABONLIQUIDODETOC</t>
         </is>
       </c>
     </row>
@@ -4577,12 +4581,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>110648</t>
+          <t>110644</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>SANTIAGO BETUN LIQUI</t>
+          <t>VESTONSILICONAAUTOBR</t>
         </is>
       </c>
     </row>
@@ -4597,14 +4601,10 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>110649</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>VESTONRENOVADORDENEU</t>
-        </is>
-      </c>
+          <t>110645</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="B212" t="n">
@@ -4617,12 +4617,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>110650</t>
+          <t>110646</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>VESTONSILICONACRISTA</t>
+          <t>VESTONCREMALIMPIADOR</t>
         </is>
       </c>
     </row>
@@ -4637,12 +4637,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>110651</t>
+          <t>110647</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>VESTONSHAMPO4000ML</t>
+          <t>VESTONCREMALIMPIADOR</t>
         </is>
       </c>
     </row>
@@ -4657,12 +4657,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>110652</t>
+          <t>110648</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>VESTONSILICONAAUTOBR</t>
+          <t>SANTIAGO BETUN LIQUI</t>
         </is>
       </c>
     </row>
@@ -4677,12 +4677,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>110653</t>
+          <t>110649</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>VESTONSILICONAAUTOBR</t>
+          <t>VESTONRENOVADORDENEU</t>
         </is>
       </c>
     </row>
@@ -4697,12 +4697,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>104844</t>
+          <t>110650</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>HE&amp;SSHOLDSPICE18ML</t>
+          <t>VESTONSILICONACRISTA</t>
         </is>
       </c>
     </row>
@@ -4717,12 +4717,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>107792</t>
+          <t>110651</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>AXEDEODARKTEMPTATION</t>
+          <t>VESTONSHAMPO4000ML</t>
         </is>
       </c>
     </row>
@@ -4737,12 +4737,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>109732</t>
+          <t>110652</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>CARIBUCEREALBOLITASS</t>
+          <t>VESTONSILICONAAUTOBR</t>
         </is>
       </c>
     </row>
@@ -4757,12 +4757,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>101373</t>
+          <t>110653</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>ELOLIVARADEREZOCASER</t>
+          <t>VESTONSILICONAAUTOBR</t>
         </is>
       </c>
     </row>
@@ -4777,12 +4777,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>110668</t>
+          <t>104844</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>MOLITALIARAVIOLICARN</t>
+          <t>HE&amp;SSHOLDSPICE18ML</t>
         </is>
       </c>
     </row>
@@ -4797,12 +4797,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>110675</t>
+          <t>107792</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>NESCAFEDESCAFEINADOD</t>
+          <t>AXEDEODARKTEMPTATION</t>
         </is>
       </c>
     </row>
@@ -4817,12 +4817,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>110678</t>
+          <t>109732</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>HUGGIESTOALLITASHUME</t>
+          <t>CARIBUCEREALBOLITASS</t>
         </is>
       </c>
     </row>
@@ -4837,12 +4837,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>110692</t>
+          <t>101373</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>FACUSATERMOSIFONDECO</t>
+          <t>ELOLIVARADEREZOCASER</t>
         </is>
       </c>
     </row>
@@ -4857,12 +4857,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>110694</t>
+          <t>110668</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>MOLITALIACONCENTRADO</t>
+          <t>MOLITALIARAVIOLICARN</t>
         </is>
       </c>
     </row>
@@ -4877,12 +4877,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>107396</t>
+          <t>110675</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>COLOMBINAPIAZZAVAINI</t>
+          <t>NESCAFEDESCAFEINADOD</t>
         </is>
       </c>
     </row>
@@ -4897,12 +4897,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>110726</t>
+          <t>110678</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>OTTOKUNZJAMÓNPIZZAED</t>
+          <t>HUGGIESTOALLITASHUME</t>
         </is>
       </c>
     </row>
@@ -4917,12 +4917,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>110728</t>
+          <t>110692</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>OTTOKUNZLOMOAHUMADO1</t>
+          <t>FACUSATERMOSIFONDECO</t>
         </is>
       </c>
     </row>
@@ -4937,12 +4937,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>110761</t>
+          <t>110694</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>SCOTCHBRITEGUANTETRA</t>
+          <t>MOLITALIACONCENTRADO</t>
         </is>
       </c>
     </row>
@@ -4957,12 +4957,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>110762</t>
+          <t>107396</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>SCOTCHBRITEPAÑOSECAT</t>
+          <t>COLOMBINAPIAZZAVAINI</t>
         </is>
       </c>
     </row>
@@ -4977,12 +4977,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>110829</t>
+          <t>110726</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>VASOAMASSADINHOJUGO(</t>
+          <t>OTTOKUNZJAMÓNPIZZAED</t>
         </is>
       </c>
     </row>
@@ -4997,12 +4997,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>110870</t>
+          <t>110728</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>FUTURATERMOSTONE1LT(</t>
+          <t>OTTOKUNZLOMOAHUMADO1</t>
         </is>
       </c>
     </row>
@@ -5017,12 +5017,12 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>110917</t>
+          <t>110761</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>ARCORHALLOWEENCALABA</t>
+          <t>SCOTCHBRITEGUANTETRA</t>
         </is>
       </c>
     </row>
@@ -5037,12 +5037,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>110916</t>
+          <t>110762</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>ARCORHALLOWEENCALABA</t>
+          <t>SCOTCHBRITEPAÑOSECAT</t>
         </is>
       </c>
     </row>
@@ -5057,12 +5057,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>110921</t>
+          <t>110829</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>ARCORMASTICABLESHALL</t>
+          <t>VASOAMASSADINHOJUGO(</t>
         </is>
       </c>
     </row>
@@ -5077,12 +5077,12 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>110977</t>
+          <t>110870</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>REYCUCHARONCEREALES</t>
+          <t>FUTURATERMOSTONE1LT(</t>
         </is>
       </c>
     </row>
@@ -5097,12 +5097,12 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>106544</t>
+          <t>110917</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>REYTAPERBIOFOODCUADD</t>
+          <t>ARCORHALLOWEENCALABA</t>
         </is>
       </c>
     </row>
@@ -5117,12 +5117,12 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>111013</t>
+          <t>110916</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>DEOPIESANTIBACTERIAL</t>
+          <t>ARCORHALLOWEENCALABA</t>
         </is>
       </c>
     </row>
@@ -5137,12 +5137,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>111102</t>
+          <t>110921</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>EGOGELPEINARULTRAINT</t>
+          <t>ARCORMASTICABLESHALL</t>
         </is>
       </c>
     </row>
@@ -5157,12 +5157,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>700024</t>
+          <t>110977</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>JABADEBOTELLADECERVE</t>
+          <t>REYCUCHARONCEREALES</t>
         </is>
       </c>
     </row>
@@ -5177,12 +5177,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>700025</t>
+          <t>106544</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>BOTELLADECERVEZARETO</t>
+          <t>REYTAPERBIOFOODCUADD</t>
         </is>
       </c>
     </row>
@@ -5197,12 +5197,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>107167</t>
+          <t>111013</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>LENTEJOROUGHRIDER(CO</t>
+          <t>DEOPIESANTIBACTERIAL</t>
         </is>
       </c>
     </row>
@@ -5217,12 +5217,12 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>100919</t>
+          <t>111102</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>TODINNOPANETON+TODIN</t>
+          <t>EGOGELPEINARULTRAINT</t>
         </is>
       </c>
     </row>
@@ -5237,12 +5237,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>111166</t>
+          <t>700024</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>RECORDEXPRIMIDORDECI</t>
+          <t>JABADEBOTELLADECERVE</t>
         </is>
       </c>
     </row>
@@ -5257,12 +5257,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>111208</t>
+          <t>700025</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>AMBROSOLIGOMITASAMBR</t>
+          <t>BOTELLADECERVEZARETO</t>
         </is>
       </c>
     </row>
@@ -5277,12 +5277,12 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>111232</t>
+          <t>107167</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>AGUCOLADOSFRUTASTROP</t>
+          <t>LENTEJOROUGHRIDER(CO</t>
         </is>
       </c>
     </row>
@@ -5297,12 +5297,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>111386</t>
+          <t>100919</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>PRIDEREVITALIZAAEROS</t>
+          <t>TODINNOPANETON+TODIN</t>
         </is>
       </c>
     </row>
@@ -5317,12 +5317,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>111448</t>
+          <t>111166</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>RECORDJUEGO4TAZONES1</t>
+          <t>RECORDEXPRIMIDORDECI</t>
         </is>
       </c>
     </row>
@@ -5337,12 +5337,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>109184</t>
+          <t>111208</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>FIGUERIALFAJORERESES</t>
+          <t>AMBROSOLIGOMITASAMBR</t>
         </is>
       </c>
     </row>
@@ -5357,12 +5357,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>105805</t>
+          <t>111232</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>BASACOLADORANATOMICO</t>
+          <t>AGUCOLADOSFRUTASTROP</t>
         </is>
       </c>
     </row>
@@ -5377,12 +5377,12 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>111886</t>
+          <t>111386</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>KOTEXTOAHIGNOCTURNA2</t>
+          <t>PRIDEREVITALIZAAEROS</t>
         </is>
       </c>
     </row>
@@ -5397,12 +5397,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>106774</t>
+          <t>111448</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>REYPAPELERAPICASSOGR</t>
+          <t>RECORDJUEGO4TAZONES1</t>
         </is>
       </c>
     </row>
@@ -5417,12 +5417,12 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>111885</t>
+          <t>109184</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>REYTAPERHERMETICORED</t>
+          <t>FIGUERIALFAJORERESES</t>
         </is>
       </c>
     </row>
@@ -5437,12 +5437,12 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>111890</t>
+          <t>105805</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>CARICIADET100G</t>
+          <t>BASACOLADORANATOMICO</t>
         </is>
       </c>
     </row>
@@ -5457,12 +5457,12 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>111891</t>
+          <t>111886</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>RECORDPROCESADORDEAL</t>
+          <t>KOTEXTOAHIGNOCTURNA2</t>
         </is>
       </c>
     </row>
@@ -5477,12 +5477,12 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>112000</t>
+          <t>106774</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>BALLERINASHDETOXHIER</t>
+          <t>REYPAPELERAPICASSOGR</t>
         </is>
       </c>
     </row>
@@ -5497,12 +5497,12 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>106803</t>
+          <t>111885</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>REYCESTOANATOMICOMED</t>
+          <t>REYTAPERHERMETICORED</t>
         </is>
       </c>
     </row>
@@ -5517,12 +5517,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>106338</t>
+          <t>111890</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>REYCESTOSUPERGIGANTE</t>
+          <t>CARICIADET100G</t>
         </is>
       </c>
     </row>
@@ -5537,12 +5537,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>107816</t>
+          <t>111891</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>REYCOLADORMULTIUSO#0</t>
+          <t>RECORDPROCESADORDEAL</t>
         </is>
       </c>
     </row>
@@ -5557,12 +5557,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>112028</t>
+          <t>112000</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>REYCOMBOROBLERECTANG</t>
+          <t>BALLERINASHDETOXHIER</t>
         </is>
       </c>
     </row>
@@ -5577,12 +5577,12 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>112032</t>
+          <t>106803</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>REYCAJAPANDORA#20(11</t>
+          <t>REYCESTOANATOMICOMED</t>
         </is>
       </c>
     </row>
@@ -5597,12 +5597,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>112034</t>
+          <t>106338</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>REYENVASESALSEROUNIV</t>
+          <t>REYCESTOSUPERGIGANTE</t>
         </is>
       </c>
     </row>
@@ -5617,12 +5617,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>112035</t>
+          <t>107816</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>REYHIELERAALASKAJUEG</t>
+          <t>REYCOLADORMULTIUSO#0</t>
         </is>
       </c>
     </row>
@@ -5637,12 +5637,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>112040</t>
+          <t>112028</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>REYORGANIZADORMULTIU</t>
+          <t>REYCOMBOROBLERECTANG</t>
         </is>
       </c>
     </row>
@@ -5657,12 +5657,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>112065</t>
+          <t>112032</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>ILKOSARTENSILVERINDU</t>
+          <t>REYCAJAPANDORA#20(11</t>
         </is>
       </c>
     </row>
@@ -5677,12 +5677,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>101443</t>
+          <t>112034</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>OCUISINEMOLDEREDONDO</t>
+          <t>REYENVASESALSEROUNIV</t>
         </is>
       </c>
     </row>
@@ -5697,12 +5697,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>108497</t>
+          <t>112035</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>VINODCOLADERAACEROIN</t>
+          <t>REYHIELERAALASKAJUEG</t>
         </is>
       </c>
     </row>
@@ -5717,12 +5717,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>101384</t>
+          <t>112040</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>FACUSASARTENBLACK&amp;SI</t>
+          <t>REYORGANIZADORMULTIU</t>
         </is>
       </c>
     </row>
@@ -5732,17 +5732,17 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>NO TIENE ASIGNADO CATEGORÍA VENTAS</t>
+          <t>NO TIENE ASIGNADO PROVEEDOR</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>960047</t>
+          <t>112065</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>GASTOSDESUMINISTROS</t>
+          <t>ILKOSARTENSILVERINDU</t>
         </is>
       </c>
     </row>
@@ -5752,17 +5752,17 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>NO TIENE ASIGNADO CATEGORÍA VENTAS</t>
+          <t>NO TIENE ASIGNADO PROVEEDOR</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>900002</t>
+          <t>101443</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>STRETCHFILM20X20X3KG</t>
+          <t>OCUISINEMOLDEREDONDO</t>
         </is>
       </c>
     </row>
@@ -5772,17 +5772,17 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>NO TIENE ASIGNADO CATEGORÍA VENTAS</t>
+          <t>NO TIENE ASIGNADO PROVEEDOR</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>900003</t>
+          <t>108497</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>STRETCHFILM18X9X25KG</t>
+          <t>VINODCOLADERAACEROIN</t>
         </is>
       </c>
     </row>
@@ -5792,17 +5792,17 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>SOLO TIENE TRADUCCIÓN PARA IDIOMA "ES"</t>
+          <t>NO TIENE ASIGNADO PROVEEDOR</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>110695</t>
+          <t>101384</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>MERIAJIPANCA</t>
+          <t>FACUSASARTENBLACK&amp;SI</t>
         </is>
       </c>
     </row>
@@ -5812,17 +5812,17 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>SOLO TIENE TRADUCCIÓN PARA IDIOMA "ES"</t>
+          <t>NO TIENE ASIGNADO CATEGORÍA VENTAS</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>700024</t>
+          <t>960047</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>JABADEBOTELLADECERVE</t>
+          <t>GASTOSDESUMINISTROS</t>
         </is>
       </c>
     </row>
@@ -5837,12 +5837,12 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>700025</t>
+          <t>110695</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>BOTELLADECERVEZARETO</t>
+          <t>MERIAJIPANCA</t>
         </is>
       </c>
     </row>
@@ -5857,12 +5857,12 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>700026</t>
+          <t>700024</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>PARIHUELADEMADERA120</t>
+          <t>JABADEBOTELLADECERVE</t>
         </is>
       </c>
     </row>
@@ -5877,12 +5877,12 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>112091</t>
+          <t>700025</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>NUTRIBELATRATAMIENTO</t>
+          <t>BOTELLADECERVEZARETO</t>
         </is>
       </c>
     </row>
@@ -5897,12 +5897,32 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>112103</t>
+          <t>700026</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>SEDAL</t>
+          <t>PARIHUELADEMADERA120</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" t="n">
+        <v>268</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>SOLO TIENE TRADUCCIÓN PARA IDIOMA "ES"</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>112091</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>NUTRIBELATRATAMIENTO</t>
         </is>
       </c>
     </row>

--- a/temp/ReporteVerificacionProductos.xlsx
+++ b/temp/ReporteVerificacionProductos.xlsx
@@ -491,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:Q277"/>
+  <dimension ref="B1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="C5" s="9" t="n">
-        <v>45230.42935067033</v>
+        <v>45231.71326481344</v>
       </c>
       <c r="D5" s="5" t="n"/>
     </row>
@@ -1681,12 +1681,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>107135</t>
+          <t>107125</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FACUSAPRENSADORDEPAP</t>
+          <t>FACUSAPINZACH</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1701,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>107138</t>
+          <t>107134</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FACUSACUCHILLOEXTRAF</t>
+          <t>FACUSACUCHILLOPAN4M/</t>
         </is>
       </c>
     </row>
@@ -1721,12 +1721,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>107145</t>
+          <t>107135</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>FACUSACUCHARASPAGUET</t>
+          <t>FACUSAPRENSADORDEPAP</t>
         </is>
       </c>
     </row>
@@ -1741,12 +1741,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>107153</t>
+          <t>107138</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FACUSAHERVIDORINFINI</t>
+          <t>FACUSACUCHILLOEXTRAF</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1761,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>109410</t>
+          <t>107145</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>FACUSABOLOACEROINOX</t>
+          <t>FACUSACUCHARASPAGUET</t>
         </is>
       </c>
     </row>
@@ -1781,12 +1781,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>109524</t>
+          <t>107153</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>KATABOOM CHICLE SURT</t>
+          <t>FACUSAHERVIDORINFINI</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>109703</t>
+          <t>109410</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>GAMBRINUSFRIJOLENSAL</t>
+          <t>FACUSABOLOACEROINOX</t>
         </is>
       </c>
     </row>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ERROR EN UNIDADES DE CONVERSIÓN - U. / 1.0 / Emp.18</t>
+          <t>ERROR EN CÓDIGO DE BARRAS</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>102485</t>
+          <t>109524</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>VIRUTEXFIBRAESPONJAA</t>
+          <t>KATABOOM CHICLE SURT</t>
         </is>
       </c>
     </row>
@@ -1836,17 +1836,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ERROR EN UNIDADES DE CONVERSIÓN - U. / 1.0 / Emp.40</t>
+          <t>ERROR EN CÓDIGO DE BARRAS</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>108930</t>
+          <t>109703</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>DROWAGELANTIBACTERIA</t>
+          <t>GAMBRINUSFRIJOLENSAL</t>
         </is>
       </c>
     </row>
@@ -1856,17 +1856,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ERROR EN UNIDADES DE CONVERSIÓN - Emp.30 / 1.875 / Emp.16</t>
+          <t>ERROR EN UNIDADES DE CONVERSIÓN - U. / 1.0 / Emp.18</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>110228</t>
+          <t>102485</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>DONOFRIOZOORPRESA70M</t>
+          <t>VIRUTEXFIBRAESPONJAA</t>
         </is>
       </c>
     </row>
@@ -1876,17 +1876,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ERROR EN UNIDADES DE CONVERSIÓN - Emp.48 / 8.0 / Emp.6</t>
+          <t>ERROR EN UNIDADES DE CONVERSIÓN - U. / 1.0 / Emp.40</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>110511</t>
+          <t>108930</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>VICTORIAGALLETAMINIT</t>
+          <t>DROWAGELANTIBACTERIA</t>
         </is>
       </c>
     </row>
@@ -1896,17 +1896,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ERROR EN UNIDADES DE CONVERSIÓN - U. / 1.0 / Emp.12</t>
+          <t>ERROR EN UNIDADES DE CONVERSIÓN - Emp.30 / 1.875 / Emp.16</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>112141</t>
+          <t>110228</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>COLGATEENJUAGUEPLAXS</t>
+          <t>DONOFRIOZOORPRESA70M</t>
         </is>
       </c>
     </row>
@@ -1916,17 +1916,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ERROR EN UNIDADES DE CONVERSIÓN - U. / 12.0 / U</t>
+          <t>ERROR EN UNIDADES DE CONVERSIÓN - Emp.48 / 8.0 / Emp.6</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>112152</t>
+          <t>110511</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>VESTONLIMPIATAPIZ480</t>
+          <t>VICTORIAGALLETAMINIT</t>
         </is>
       </c>
     </row>
@@ -1936,17 +1936,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ERROR EN CÓDIGO SUNAT</t>
+          <t>ERROR EN UNIDADES DE CONVERSIÓN - U. / 1.0 / Emp.12</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>110391</t>
+          <t>112141</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FACUSACOMBOPRENSADOR</t>
+          <t>COLGATEENJUAGUEPLAXS</t>
         </is>
       </c>
     </row>
@@ -1956,17 +1956,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ERROR EN CÓDIGO SUNAT</t>
+          <t>ERROR EN UNIDADES DE CONVERSIÓN - U. / 12.0 / U</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>111883</t>
+          <t>112152</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>NESTLECOBERTURADECHO</t>
+          <t>VESTONLIMPIATAPIZ480</t>
         </is>
       </c>
     </row>
@@ -1976,17 +1976,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>NO TIENE ASIGNADO PROVEEDOR</t>
+          <t>ERROR EN CÓDIGO SUNAT</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>110607</t>
+          <t>110391</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>KRYZPOSNACKSSABORCRE</t>
+          <t>FACUSACOMBOPRENSADOR</t>
         </is>
       </c>
     </row>
@@ -1996,17 +1996,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>NO TIENE ASIGNADO PROVEEDOR</t>
+          <t>ERROR EN CÓDIGO SUNAT</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>110608</t>
+          <t>111883</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>BARCELORONIMPERIALON</t>
+          <t>NESTLECOBERTURADECHO</t>
         </is>
       </c>
     </row>
@@ -2021,12 +2021,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>110609</t>
+          <t>110607</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>BARCELOGRANAÑEJODARK</t>
+          <t>KRYZPOSNACKSSABORCRE</t>
         </is>
       </c>
     </row>
@@ -2041,12 +2041,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>110610</t>
+          <t>110608</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>BARCELORONDOMINICANO</t>
+          <t>BARCELORONIMPERIALON</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2061,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>110611</t>
+          <t>110609</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>WHITLEYNEILLVODKA700</t>
+          <t>BARCELOGRANAÑEJODARK</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2081,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>110613</t>
+          <t>110610</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>KRYZPOSNACKSSABORCRE</t>
+          <t>BARCELORONDOMINICANO</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>110614</t>
+          <t>110611</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>FAMILYGUARDAEDESINFE</t>
+          <t>WHITLEYNEILLVODKA700</t>
         </is>
       </c>
     </row>
@@ -2121,12 +2121,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>110615</t>
+          <t>110613</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>FAMILYGUARDAEDESINFE</t>
+          <t>KRYZPOSNACKSSABORCRE</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>110616</t>
+          <t>110614</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>DONLUCHOGELATINAFRES</t>
+          <t>FAMILYGUARDAEDESINFE</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2161,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>110617</t>
+          <t>110615</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>DONLUCHOGELATINANARA</t>
+          <t>FAMILYGUARDAEDESINFE</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>110618</t>
+          <t>110616</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>DON LUCHO GELATINA P</t>
+          <t>DONLUCHOGELATINAFRES</t>
         </is>
       </c>
     </row>
@@ -2201,12 +2201,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>110621</t>
+          <t>110617</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>REYBALDE1LCTAPAYASAP</t>
+          <t>DONLUCHOGELATINANARA</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>110626</t>
+          <t>110618</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MINIGELATINASURTIDAS</t>
+          <t>DON LUCHO GELATINA P</t>
         </is>
       </c>
     </row>
@@ -2241,12 +2241,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>110628</t>
+          <t>110621</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>COLOMBINAGRISSLYGOMI</t>
+          <t>REYBALDE1LCTAPAYASAP</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2261,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>108573</t>
+          <t>110626</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>CANASTA BASICA TRUJI</t>
+          <t>MINIGELATINASURTIDAS</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>108574</t>
+          <t>110628</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>CANASTAFAMILIAR</t>
+          <t>COLOMBINAGRISSLYGOMI</t>
         </is>
       </c>
     </row>
@@ -2301,12 +2301,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>108575</t>
+          <t>108573</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>CANASTAFAMILIARTRUJI</t>
+          <t>CANASTA BASICA TRUJI</t>
         </is>
       </c>
     </row>
@@ -2321,12 +2321,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>108576</t>
+          <t>108574</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>CANASTAFAMILIARTRUJI</t>
+          <t>CANASTAFAMILIAR</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>108577</t>
+          <t>108575</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>CANASTAPREMIUTRUJILL</t>
+          <t>CANASTAFAMILIARTRUJI</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>108578</t>
+          <t>108576</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>CANASTADORADATRUJILL</t>
+          <t>CANASTAFAMILIARTRUJI</t>
         </is>
       </c>
     </row>
@@ -2381,12 +2381,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>108579</t>
+          <t>108577</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>CANASTAPREMIUNTRUJIL</t>
+          <t>CANASTAPREMIUTRUJILL</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2401,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>108580</t>
+          <t>108578</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>CANASTAFAMILIARDONOF</t>
+          <t>CANASTADORADATRUJILL</t>
         </is>
       </c>
     </row>
@@ -2421,12 +2421,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>108581</t>
+          <t>108579</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>CANASTAPREMIUNDONOFR</t>
+          <t>CANASTAPREMIUNTRUJIL</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>108582</t>
+          <t>108580</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>CANASTAFAMILIARTODIN</t>
+          <t>CANASTAFAMILIARDONOF</t>
         </is>
       </c>
     </row>
@@ -2461,12 +2461,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>108583</t>
+          <t>108581</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>CANASTAPREMIUNTODINN</t>
+          <t>CANASTAPREMIUNDONOFR</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>108593</t>
+          <t>108582</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>TRUJILLOARVEJA500G</t>
+          <t>CANASTAFAMILIARTODIN</t>
         </is>
       </c>
     </row>
@@ -2501,12 +2501,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>108628</t>
+          <t>108583</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>CANASTAFAMILIARTRUJI</t>
+          <t>CANASTAPREMIUNTODINN</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>108629</t>
+          <t>108593</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>CANASTAPREMIUMTRUJIL</t>
+          <t>TRUJILLOARVEJA500G</t>
         </is>
       </c>
     </row>
@@ -2541,12 +2541,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>108630</t>
+          <t>108628</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CANASTABASICATRUJILL</t>
+          <t>CANASTAFAMILIARTRUJI</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>108699</t>
+          <t>108629</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>TRUJILLOHIELOENCUBIT</t>
+          <t>CANASTAPREMIUMTRUJIL</t>
         </is>
       </c>
     </row>
@@ -2581,12 +2581,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>109483</t>
+          <t>108630</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>BONIF.CLOROX LEJIA T</t>
+          <t>CANASTABASICATRUJILL</t>
         </is>
       </c>
     </row>
@@ -2601,12 +2601,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>109484</t>
+          <t>108699</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>BONIFCLOROXLEJIATRAD</t>
+          <t>TRUJILLOHIELOENCUBIT</t>
         </is>
       </c>
     </row>
@@ -2621,12 +2621,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>110188</t>
+          <t>109483</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>BONIFTRUJILLOPANETON</t>
+          <t>BONIF.CLOROX LEJIA T</t>
         </is>
       </c>
     </row>
@@ -2641,12 +2641,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>110215</t>
+          <t>109484</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>CANASTAPREMIUNTRUJIL</t>
+          <t>BONIFCLOROXLEJIATRAD</t>
         </is>
       </c>
     </row>
@@ -2661,12 +2661,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>104330</t>
+          <t>110188</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>CONCEPTSSOPORTEACRIL</t>
+          <t>BONIFTRUJILLOPANETON</t>
         </is>
       </c>
     </row>
@@ -2681,12 +2681,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>104333</t>
+          <t>110215</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>CONCEPTSSOPORTEACRIL</t>
+          <t>CANASTAPREMIUNTRUJIL</t>
         </is>
       </c>
     </row>
@@ -2701,12 +2701,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>104338</t>
+          <t>104330</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SANTINICHRISTMASADOR</t>
+          <t>CONCEPTSSOPORTEACRIL</t>
         </is>
       </c>
     </row>
@@ -2721,12 +2721,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>104348</t>
+          <t>104333</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>CONCEPTSCUADRODECO</t>
+          <t>CONCEPTSSOPORTEACRIL</t>
         </is>
       </c>
     </row>
@@ -2741,12 +2741,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>104349</t>
+          <t>104338</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>CONCEPTSFIG.AFRICANA</t>
+          <t>SANTINICHRISTMASADOR</t>
         </is>
       </c>
     </row>
@@ -2761,12 +2761,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>104354</t>
+          <t>104348</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>CONCEPTSFLORDECORATI</t>
+          <t>CONCEPTSCUADRODECO</t>
         </is>
       </c>
     </row>
@@ -2781,12 +2781,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>104356</t>
+          <t>104349</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>CONCEPTSPORTARETRATO</t>
+          <t>CONCEPTSFIG.AFRICANA</t>
         </is>
       </c>
     </row>
@@ -2801,12 +2801,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>104357</t>
+          <t>104354</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>CONCEPTSSUJETALIBRO</t>
+          <t>CONCEPTSFLORDECORATI</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>105099</t>
+          <t>104356</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>BARDINETLICORDEMENTA</t>
+          <t>CONCEPTSPORTARETRATO</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>105100</t>
+          <t>104357</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>CACHAZA51BRAZILLICOR</t>
+          <t>CONCEPTSSUJETALIBRO</t>
         </is>
       </c>
     </row>
@@ -2861,12 +2861,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>105101</t>
+          <t>105099</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>CAMPARIBITTERLICORDE</t>
+          <t>BARDINETLICORDEMENTA</t>
         </is>
       </c>
     </row>
@@ -2881,12 +2881,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>105106</t>
+          <t>105100</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>SHERIDANSLICORORIGIN</t>
+          <t>CACHAZA51BRAZILLICOR</t>
         </is>
       </c>
     </row>
@@ -2901,12 +2901,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>105351</t>
+          <t>105101</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TRUJILLOFILETEDECABA</t>
+          <t>CAMPARIBITTERLICORDE</t>
         </is>
       </c>
     </row>
@@ -2921,12 +2921,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>105512</t>
+          <t>105106</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>REALFILETEATUNAGSINS</t>
+          <t>SHERIDANSLICORORIGIN</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>107001</t>
+          <t>105351</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>CONCEPTSUTENSILIOSPA</t>
+          <t>TRUJILLOFILETEDECABA</t>
         </is>
       </c>
     </row>
@@ -2961,12 +2961,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>107013</t>
+          <t>105512</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>C&amp;ICHALTRAMASNEGRO00</t>
+          <t>REALFILETEATUNAGSINS</t>
         </is>
       </c>
     </row>
@@ -2981,12 +2981,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>107522</t>
+          <t>107001</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>CONCEPTSPASTILLERO10</t>
+          <t>CONCEPTSUTENSILIOSPA</t>
         </is>
       </c>
     </row>
@@ -3001,12 +3001,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>107523</t>
+          <t>107013</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>CONCEPTSFLORERO50CM</t>
+          <t>C&amp;ICHALTRAMASNEGRO00</t>
         </is>
       </c>
     </row>
@@ -3021,12 +3021,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>107525</t>
+          <t>107522</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>CONCEPTSMANTEQUILLER</t>
+          <t>CONCEPTSPASTILLERO10</t>
         </is>
       </c>
     </row>
@@ -3041,12 +3041,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>107707</t>
+          <t>107523</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>FREIXENETESPUMANTEM</t>
+          <t>CONCEPTSFLORERO50CM</t>
         </is>
       </c>
     </row>
@@ -3061,12 +3061,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>107709</t>
+          <t>107525</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>BIONDIPISCOACHOLADO5</t>
+          <t>CONCEPTSMANTEQUILLER</t>
         </is>
       </c>
     </row>
@@ -3081,12 +3081,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>107711</t>
+          <t>107707</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>BRANDYDEJEREZFUNDADO</t>
+          <t>FREIXENETESPUMANTEM</t>
         </is>
       </c>
     </row>
@@ -3101,12 +3101,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>108008</t>
+          <t>107709</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>BOHEMIA SET COPAS DE</t>
+          <t>BIONDIPISCOACHOLADO5</t>
         </is>
       </c>
     </row>
@@ -3121,12 +3121,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>108010</t>
+          <t>107711</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>CONCEPTS PEONIA ROS-</t>
+          <t>BRANDYDEJEREZFUNDADO</t>
         </is>
       </c>
     </row>
@@ -3141,12 +3141,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>108012</t>
+          <t>108008</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>TOSKANASUJETADORPARA</t>
+          <t>BOHEMIA SET COPAS DE</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>108016</t>
+          <t>108010</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>CILINDROVACIODEALCOH</t>
+          <t>CONCEPTS PEONIA ROS-</t>
         </is>
       </c>
     </row>
@@ -3181,12 +3181,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>108415</t>
+          <t>108012</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>KANKUNRONDURAZNO1L</t>
+          <t>TOSKANASUJETADORPARA</t>
         </is>
       </c>
     </row>
@@ -3201,12 +3201,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>108420</t>
+          <t>108016</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>KIEVVODKA1L</t>
+          <t>CILINDROVACIODEALCOH</t>
         </is>
       </c>
     </row>
@@ -3221,12 +3221,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>108445</t>
+          <t>108415</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>NESTLECHOCOLATESUBLI</t>
+          <t>KANKUNRONDURAZNO1L</t>
         </is>
       </c>
     </row>
@@ -3241,12 +3241,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>108510</t>
+          <t>108420</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>FACUSACUCHARASPAGUET</t>
+          <t>KIEVVODKA1L</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3261,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>108537</t>
+          <t>108445</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>FACUSACUCHILLODECOCI</t>
+          <t>NESTLECHOCOLATESUBLI</t>
         </is>
       </c>
     </row>
@@ -3281,12 +3281,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>108553</t>
+          <t>108510</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>ISANAPALETAPARAPIES</t>
+          <t>FACUSACUCHARASPAGUET</t>
         </is>
       </c>
     </row>
@@ -3301,12 +3301,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>108555</t>
+          <t>108537</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>NIVEAFORMENSILVERPRO</t>
+          <t>FACUSACUCHILLODECOCI</t>
         </is>
       </c>
     </row>
@@ -3321,12 +3321,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>108586</t>
+          <t>108553</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ELCHIMBOTANOARROZNIR</t>
+          <t>ISANAPALETAPARAPIES</t>
         </is>
       </c>
     </row>
@@ -3341,12 +3341,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>108632</t>
+          <t>108555</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>MR MUSCULO LIQ CITRU</t>
+          <t>NIVEAFORMENSILVERPRO</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>108633</t>
+          <t>108586</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>NUTRICANALIMBALANCAD</t>
+          <t>ELCHIMBOTANOARROZNIR</t>
         </is>
       </c>
     </row>
@@ -3381,12 +3381,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>108641</t>
+          <t>108632</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>NESCAFEKIRMA</t>
+          <t>MR MUSCULO LIQ CITRU</t>
         </is>
       </c>
     </row>
@@ -3401,12 +3401,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>108711</t>
+          <t>108633</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>HELLO KITTY TOALLA H</t>
+          <t>NUTRICANALIMBALANCAD</t>
         </is>
       </c>
     </row>
@@ -3421,12 +3421,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>108712</t>
+          <t>108641</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>HELLO KITTY TOALLA H</t>
+          <t>NESCAFEKIRMA</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>108713</t>
+          <t>108711</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -3461,12 +3461,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>108791</t>
+          <t>108712</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ETERNAGUANTEANTIDESL</t>
+          <t>HELLO KITTY TOALLA H</t>
         </is>
       </c>
     </row>
@@ -3481,12 +3481,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>108799</t>
+          <t>108713</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>PANTENESH+ACRIZOSDEF</t>
+          <t>HELLO KITTY TOALLA H</t>
         </is>
       </c>
     </row>
@@ -3501,12 +3501,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>108800</t>
+          <t>108791</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>PANTENESH+ACRESTAURA</t>
+          <t>ETERNAGUANTEANTIDESL</t>
         </is>
       </c>
     </row>
@@ -3521,12 +3521,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>108803</t>
+          <t>108799</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>H&amp;SSHHIDRATACIÓNACEI</t>
+          <t>PANTENESH+ACRIZOSDEF</t>
         </is>
       </c>
     </row>
@@ -3541,12 +3541,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>108834</t>
+          <t>108800</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>BIOEXPERTSHKERATINA3</t>
+          <t>PANTENESH+ACRESTAURA</t>
         </is>
       </c>
     </row>
@@ -3561,12 +3561,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>108835</t>
+          <t>108803</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>SAVITALSHMULTIOLEOS5</t>
+          <t>H&amp;SSHHIDRATACIÓNACEI</t>
         </is>
       </c>
     </row>
@@ -3581,12 +3581,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>108836</t>
+          <t>108834</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>SEDALSHCARBONACT+PEO</t>
+          <t>BIOEXPERTSHKERATINA3</t>
         </is>
       </c>
     </row>
@@ -3601,12 +3601,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>108839</t>
+          <t>108835</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>SAVITALJABONALMENDRA</t>
+          <t>SAVITALSHMULTIOLEOS5</t>
         </is>
       </c>
     </row>
@@ -3621,12 +3621,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>108879</t>
+          <t>108836</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>YOLEITYOGURTNATURAL1</t>
+          <t>SEDALSHCARBONACT+PEO</t>
         </is>
       </c>
     </row>
@@ -3641,12 +3641,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>108886</t>
+          <t>108839</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>FACUSABLISTERDECUCHI</t>
+          <t>SAVITALJABONALMENDRA</t>
         </is>
       </c>
     </row>
@@ -3661,12 +3661,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>108893</t>
+          <t>108879</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>FACUSABLISTERDEPIZZA</t>
+          <t>YOLEITYOGURTNATURAL1</t>
         </is>
       </c>
     </row>
@@ -3681,12 +3681,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>108990</t>
+          <t>108886</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>CARTAVIORONBLACK1.75</t>
+          <t>FACUSABLISTERDECUCHI</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3701,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>109002</t>
+          <t>108893</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>TEQUILA1800REPOSADO7</t>
+          <t>FACUSABLISTERDEPIZZA</t>
         </is>
       </c>
     </row>
@@ -3721,12 +3721,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>109004</t>
+          <t>108990</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>TEQUILA1800ESSENTIAL</t>
+          <t>CARTAVIORONBLACK1.75</t>
         </is>
       </c>
     </row>
@@ -3741,12 +3741,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>109026</t>
+          <t>109002</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>REYMESAROBLE80x80</t>
+          <t>TEQUILA1800REPOSADO7</t>
         </is>
       </c>
     </row>
@@ -3761,12 +3761,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>109154</t>
+          <t>109004</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ILKOSARTENWOKANTIADH</t>
+          <t>TEQUILA1800ESSENTIAL</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>109189</t>
+          <t>109026</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>FACUSA SARTEN WOK NO</t>
+          <t>REYMESAROBLE80x80</t>
         </is>
       </c>
     </row>
@@ -3801,12 +3801,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>109191</t>
+          <t>109154</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>FACUSA BATIDOR ACERO</t>
+          <t>ILKOSARTENWOKANTIADH</t>
         </is>
       </c>
     </row>
@@ -3821,12 +3821,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>109267</t>
+          <t>109189</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>ILKOESPATULAPESCADOS</t>
+          <t>FACUSA SARTEN WOK NO</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>109268</t>
+          <t>109191</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>ILKOMACHACADORDEPAPA</t>
+          <t>FACUSA BATIDOR ACERO</t>
         </is>
       </c>
     </row>
@@ -3861,12 +3861,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>109269</t>
+          <t>109267</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>ILKOPALETAMULTIUSOSI</t>
+          <t>ILKOESPATULAPESCADOS</t>
         </is>
       </c>
     </row>
@@ -3881,12 +3881,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>109270</t>
+          <t>109268</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>ILKOPORCIONADORDEHEL</t>
+          <t>ILKOMACHACADORDEPAPA</t>
         </is>
       </c>
     </row>
@@ -3901,12 +3901,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>109271</t>
+          <t>109269</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>ILKORALLADORMANUALNE</t>
+          <t>ILKOPALETAMULTIUSOSI</t>
         </is>
       </c>
     </row>
@@ -3921,12 +3921,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>109272</t>
+          <t>109270</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>ILKOMATDESILICONAREP</t>
+          <t>ILKOPORCIONADORDEHEL</t>
         </is>
       </c>
     </row>
@@ -3941,12 +3941,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>109815</t>
+          <t>109271</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>WINTERSCOBERTURADECH</t>
+          <t>ILKORALLADORMANUALNE</t>
         </is>
       </c>
     </row>
@@ -3961,12 +3961,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>109829</t>
+          <t>109272</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>CAMPONUESTROLECHEFOR</t>
+          <t>ILKOMATDESILICONAREP</t>
         </is>
       </c>
     </row>
@@ -3981,12 +3981,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>110155</t>
+          <t>109815</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>KUSIMERMELADADEMARAC</t>
+          <t>WINTERSCOBERTURADECH</t>
         </is>
       </c>
     </row>
@@ -4001,12 +4001,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>110392</t>
+          <t>109829</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>FACUSACOMBOPRENSADOR</t>
+          <t>CAMPONUESTROLECHEFOR</t>
         </is>
       </c>
     </row>
@@ -4021,12 +4021,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>110396</t>
+          <t>110155</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>FACUSAJGODESARTENNOV</t>
+          <t>KUSIMERMELADADEMARAC</t>
         </is>
       </c>
     </row>
@@ -4041,12 +4041,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>700018</t>
+          <t>110392</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>BATERIADELITIO36V</t>
+          <t>FACUSACOMBOPRENSADOR</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4061,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>960047</t>
+          <t>110396</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>GASTOSDESUMINISTROS</t>
+          <t>FACUSAJGODESARTENNOV</t>
         </is>
       </c>
     </row>
@@ -4081,12 +4081,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>110629</t>
+          <t>700018</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>GLORIAYOGURTYOGUITOF</t>
+          <t>BATERIADELITIO36V</t>
         </is>
       </c>
     </row>
@@ -4101,12 +4101,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>110630</t>
+          <t>960047</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>GLORIAYOGURTYOGUITOV</t>
+          <t>GASTOSDESUMINISTROS</t>
         </is>
       </c>
     </row>
@@ -4121,12 +4121,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>110631</t>
+          <t>110629</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>GLORIAYOGURTGRIEGOFR</t>
+          <t>GLORIAYOGURTYOGUITOF</t>
         </is>
       </c>
     </row>
@@ -4141,12 +4141,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>110632</t>
+          <t>110630</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>GLORIAYOGURTGRIEGONA</t>
+          <t>GLORIAYOGURTYOGUITOV</t>
         </is>
       </c>
     </row>
@@ -4161,12 +4161,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>101125</t>
+          <t>110631</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>ADAMSBUBBALOOZOMBI70</t>
+          <t>GLORIAYOGURTGRIEGOFR</t>
         </is>
       </c>
     </row>
@@ -4181,12 +4181,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>101129</t>
+          <t>110632</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>CLORETSCARAMELOMINTS</t>
+          <t>GLORIAYOGURTGRIEGONA</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>102117</t>
+          <t>101125</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>GLORIABEBIDADURAZNO1</t>
+          <t>ADAMSBUBBALOOZOMBI70</t>
         </is>
       </c>
     </row>
@@ -4221,12 +4221,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>102506</t>
+          <t>101129</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>VIRUTEXBOLSAPBASURA1</t>
+          <t>CLORETSCARAMELOMINTS</t>
         </is>
       </c>
     </row>
@@ -4241,12 +4241,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>103854</t>
+          <t>102117</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>HUGGIESPAÑALNATURALC</t>
+          <t>GLORIABEBIDADURAZNO1</t>
         </is>
       </c>
     </row>
@@ -4261,12 +4261,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>106149</t>
+          <t>102506</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>SEDALSHBOMBAARGAN340</t>
+          <t>VIRUTEXBOLSAPBASURA1</t>
         </is>
       </c>
     </row>
@@ -4281,12 +4281,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>106166</t>
+          <t>103854</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>SEDALSH+ACCERAMIDAS3</t>
+          <t>HUGGIESPAÑALNATURALC</t>
         </is>
       </c>
     </row>
@@ -4301,12 +4301,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>106200</t>
+          <t>106149</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>MCCOLLINSFILTRANTETE</t>
+          <t>SEDALSHBOMBAARGAN340</t>
         </is>
       </c>
     </row>
@@ -4321,12 +4321,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>106408</t>
+          <t>106166</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>REYCUBIERTOSPARAENSA</t>
+          <t>SEDALSH+ACCERAMIDAS3</t>
         </is>
       </c>
     </row>
@@ -4341,12 +4341,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>106552</t>
+          <t>106200</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>REYTAPERBIOFOODRECTD</t>
+          <t>MCCOLLINSFILTRANTETE</t>
         </is>
       </c>
     </row>
@@ -4361,12 +4361,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>106807</t>
+          <t>106408</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>REYCESTOFRESH</t>
+          <t>REYCUBIERTOSPARAENSA</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4381,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>107787</t>
+          <t>106552</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>SEDALSHAMPOORIZOSDEF</t>
+          <t>REYTAPERBIOFOODRECTD</t>
         </is>
       </c>
     </row>
@@ -4401,12 +4401,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>108117</t>
+          <t>106807</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>ILKOPELADORVERTICALB</t>
+          <t>REYCESTOFRESH</t>
         </is>
       </c>
     </row>
@@ -4421,12 +4421,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>108597</t>
+          <t>107787</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>LAIVELECHECHIQUITARR</t>
+          <t>SEDALSHAMPOORIZOSDEF</t>
         </is>
       </c>
     </row>
@@ -4441,12 +4441,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>110635</t>
+          <t>108117</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>UMSHAESENCIADEVAINIL</t>
+          <t>ILKOPELADORVERTICALB</t>
         </is>
       </c>
     </row>
@@ -4461,12 +4461,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>110637</t>
+          <t>108597</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>TAZZLIMPIATODOBEBE90</t>
+          <t>LAIVELECHECHIQUITARR</t>
         </is>
       </c>
     </row>
@@ -4481,12 +4481,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>110639</t>
+          <t>110635</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>LUAALCOHOLENGEL1L</t>
+          <t>UMSHAESENCIADEVAINIL</t>
         </is>
       </c>
     </row>
@@ -4501,12 +4501,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>110640</t>
+          <t>110637</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>MONCLERBIALCOHOLENGE</t>
+          <t>TAZZLIMPIATODOBEBE90</t>
         </is>
       </c>
     </row>
@@ -4521,12 +4521,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>110641</t>
+          <t>110639</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>LÚA JABON LIQUIDO DE</t>
+          <t>LUAALCOHOLENGEL1L</t>
         </is>
       </c>
     </row>
@@ -4541,12 +4541,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>110642</t>
+          <t>110640</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>LÚAJABONLIQUIDODETOC</t>
+          <t>MONCLERBIALCOHOLENGE</t>
         </is>
       </c>
     </row>
@@ -4561,12 +4561,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>110643</t>
+          <t>110641</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>LÚAJABONLIQUIDODETOC</t>
+          <t>LÚA JABON LIQUIDO DE</t>
         </is>
       </c>
     </row>
@@ -4581,12 +4581,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>110644</t>
+          <t>110642</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>VESTONSILICONAAUTOBR</t>
+          <t>LÚAJABONLIQUIDODETOC</t>
         </is>
       </c>
     </row>
@@ -4601,10 +4601,14 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>110645</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr"/>
+          <t>110643</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>LÚAJABONLIQUIDODETOC</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="B212" t="n">
@@ -4617,12 +4621,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>110646</t>
+          <t>110644</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>VESTONCREMALIMPIADOR</t>
+          <t>VESTONSILICONAAUTOBR</t>
         </is>
       </c>
     </row>
@@ -4637,14 +4641,10 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>110647</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>VESTONCREMALIMPIADOR</t>
-        </is>
-      </c>
+          <t>110645</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="B214" t="n">
@@ -4657,12 +4657,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>110648</t>
+          <t>110646</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>SANTIAGO BETUN LIQUI</t>
+          <t>VESTONCREMALIMPIADOR</t>
         </is>
       </c>
     </row>
@@ -4677,12 +4677,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>110649</t>
+          <t>110647</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>VESTONRENOVADORDENEU</t>
+          <t>VESTONCREMALIMPIADOR</t>
         </is>
       </c>
     </row>
@@ -4697,12 +4697,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>110650</t>
+          <t>110648</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>VESTONSILICONACRISTA</t>
+          <t>SANTIAGO BETUN LIQUI</t>
         </is>
       </c>
     </row>
@@ -4717,12 +4717,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>110651</t>
+          <t>110649</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>VESTONSHAMPO4000ML</t>
+          <t>VESTONRENOVADORDENEU</t>
         </is>
       </c>
     </row>
@@ -4737,12 +4737,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>110652</t>
+          <t>110650</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>VESTONSILICONAAUTOBR</t>
+          <t>VESTONSILICONACRISTA</t>
         </is>
       </c>
     </row>
@@ -4757,12 +4757,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>110653</t>
+          <t>110651</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>VESTONSILICONAAUTOBR</t>
+          <t>VESTONSHAMPO4000ML</t>
         </is>
       </c>
     </row>
@@ -4777,12 +4777,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>104844</t>
+          <t>110652</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>HE&amp;SSHOLDSPICE18ML</t>
+          <t>VESTONSILICONAAUTOBR</t>
         </is>
       </c>
     </row>
@@ -4797,12 +4797,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>107792</t>
+          <t>110653</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>AXEDEODARKTEMPTATION</t>
+          <t>VESTONSILICONAAUTOBR</t>
         </is>
       </c>
     </row>
@@ -4817,12 +4817,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>109732</t>
+          <t>104844</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>CARIBUCEREALBOLITASS</t>
+          <t>HE&amp;SSHOLDSPICE18ML</t>
         </is>
       </c>
     </row>
@@ -4837,12 +4837,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>101373</t>
+          <t>107792</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>ELOLIVARADEREZOCASER</t>
+          <t>AXEDEODARKTEMPTATION</t>
         </is>
       </c>
     </row>
@@ -4857,12 +4857,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>110668</t>
+          <t>109732</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>MOLITALIARAVIOLICARN</t>
+          <t>CARIBUCEREALBOLITASS</t>
         </is>
       </c>
     </row>
@@ -4877,12 +4877,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>110675</t>
+          <t>101373</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>NESCAFEDESCAFEINADOD</t>
+          <t>ELOLIVARADEREZOCASER</t>
         </is>
       </c>
     </row>
@@ -4897,12 +4897,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>110678</t>
+          <t>110668</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>HUGGIESTOALLITASHUME</t>
+          <t>MOLITALIARAVIOLICARN</t>
         </is>
       </c>
     </row>
@@ -4917,12 +4917,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>110692</t>
+          <t>110675</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>FACUSATERMOSIFONDECO</t>
+          <t>NESCAFEDESCAFEINADOD</t>
         </is>
       </c>
     </row>
@@ -4937,12 +4937,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>110694</t>
+          <t>110678</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>MOLITALIACONCENTRADO</t>
+          <t>HUGGIESTOALLITASHUME</t>
         </is>
       </c>
     </row>
@@ -4957,12 +4957,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>107396</t>
+          <t>110692</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>COLOMBINAPIAZZAVAINI</t>
+          <t>FACUSATERMOSIFONDECO</t>
         </is>
       </c>
     </row>
@@ -4977,12 +4977,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>110726</t>
+          <t>110694</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>OTTOKUNZJAMÓNPIZZAED</t>
+          <t>MOLITALIACONCENTRADO</t>
         </is>
       </c>
     </row>
@@ -4997,12 +4997,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>110728</t>
+          <t>107396</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>OTTOKUNZLOMOAHUMADO1</t>
+          <t>COLOMBINAPIAZZAVAINI</t>
         </is>
       </c>
     </row>
@@ -5017,12 +5017,12 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>110761</t>
+          <t>110726</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>SCOTCHBRITEGUANTETRA</t>
+          <t>OTTOKUNZJAMÓNPIZZAED</t>
         </is>
       </c>
     </row>
@@ -5037,12 +5037,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>110762</t>
+          <t>110728</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>SCOTCHBRITEPAÑOSECAT</t>
+          <t>OTTOKUNZLOMOAHUMADO1</t>
         </is>
       </c>
     </row>
@@ -5057,12 +5057,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>110829</t>
+          <t>110761</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>VASOAMASSADINHOJUGO(</t>
+          <t>SCOTCHBRITEGUANTETRA</t>
         </is>
       </c>
     </row>
@@ -5077,12 +5077,12 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>110870</t>
+          <t>110762</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>FUTURATERMOSTONE1LT(</t>
+          <t>SCOTCHBRITEPAÑOSECAT</t>
         </is>
       </c>
     </row>
@@ -5097,12 +5097,12 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>110917</t>
+          <t>110829</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>ARCORHALLOWEENCALABA</t>
+          <t>VASOAMASSADINHOJUGO(</t>
         </is>
       </c>
     </row>
@@ -5117,12 +5117,12 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>110916</t>
+          <t>110870</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>ARCORHALLOWEENCALABA</t>
+          <t>FUTURATERMOSTONE1LT(</t>
         </is>
       </c>
     </row>
@@ -5137,12 +5137,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>110921</t>
+          <t>110917</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>ARCORMASTICABLESHALL</t>
+          <t>ARCORHALLOWEENCALABA</t>
         </is>
       </c>
     </row>
@@ -5157,12 +5157,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>110977</t>
+          <t>110916</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>REYCUCHARONCEREALES</t>
+          <t>ARCORHALLOWEENCALABA</t>
         </is>
       </c>
     </row>
@@ -5177,12 +5177,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>106544</t>
+          <t>110921</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>REYTAPERBIOFOODCUADD</t>
+          <t>ARCORMASTICABLESHALL</t>
         </is>
       </c>
     </row>
@@ -5197,12 +5197,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>111013</t>
+          <t>110977</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>DEOPIESANTIBACTERIAL</t>
+          <t>REYCUCHARONCEREALES</t>
         </is>
       </c>
     </row>
@@ -5217,12 +5217,12 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>111102</t>
+          <t>106544</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>EGOGELPEINARULTRAINT</t>
+          <t>REYTAPERBIOFOODCUADD</t>
         </is>
       </c>
     </row>
@@ -5237,12 +5237,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>700024</t>
+          <t>111013</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>JABADEBOTELLADECERVE</t>
+          <t>DEOPIESANTIBACTERIAL</t>
         </is>
       </c>
     </row>
@@ -5257,12 +5257,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>700025</t>
+          <t>111102</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>BOTELLADECERVEZARETO</t>
+          <t>EGOGELPEINARULTRAINT</t>
         </is>
       </c>
     </row>
@@ -5277,12 +5277,12 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>107167</t>
+          <t>700024</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>LENTEJOROUGHRIDER(CO</t>
+          <t>JABADEBOTELLADECERVE</t>
         </is>
       </c>
     </row>
@@ -5297,12 +5297,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>100919</t>
+          <t>700025</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>TODINNOPANETON+TODIN</t>
+          <t>BOTELLADECERVEZARETO</t>
         </is>
       </c>
     </row>
@@ -5317,12 +5317,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>111166</t>
+          <t>107167</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>RECORDEXPRIMIDORDECI</t>
+          <t>LENTEJOROUGHRIDER(CO</t>
         </is>
       </c>
     </row>
@@ -5337,12 +5337,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>111208</t>
+          <t>100919</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>AMBROSOLIGOMITASAMBR</t>
+          <t>TODINNOPANETON+TODIN</t>
         </is>
       </c>
     </row>
@@ -5357,12 +5357,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>111232</t>
+          <t>111166</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>AGUCOLADOSFRUTASTROP</t>
+          <t>RECORDEXPRIMIDORDECI</t>
         </is>
       </c>
     </row>
@@ -5377,12 +5377,12 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>111386</t>
+          <t>111208</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>PRIDEREVITALIZAAEROS</t>
+          <t>AMBROSOLIGOMITASAMBR</t>
         </is>
       </c>
     </row>
@@ -5397,12 +5397,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>111448</t>
+          <t>111232</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>RECORDJUEGO4TAZONES1</t>
+          <t>AGUCOLADOSFRUTASTROP</t>
         </is>
       </c>
     </row>
@@ -5417,12 +5417,12 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>109184</t>
+          <t>111386</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>FIGUERIALFAJORERESES</t>
+          <t>PRIDEREVITALIZAAEROS</t>
         </is>
       </c>
     </row>
@@ -5437,12 +5437,12 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>105805</t>
+          <t>111448</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>BASACOLADORANATOMICO</t>
+          <t>RECORDJUEGO4TAZONES1</t>
         </is>
       </c>
     </row>
@@ -5457,12 +5457,12 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>111886</t>
+          <t>109184</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>KOTEXTOAHIGNOCTURNA2</t>
+          <t>FIGUERIALFAJORERESES</t>
         </is>
       </c>
     </row>
@@ -5477,12 +5477,12 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>106774</t>
+          <t>105805</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>REYPAPELERAPICASSOGR</t>
+          <t>BASACOLADORANATOMICO</t>
         </is>
       </c>
     </row>
@@ -5497,12 +5497,12 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>111885</t>
+          <t>111886</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>REYTAPERHERMETICORED</t>
+          <t>KOTEXTOAHIGNOCTURNA2</t>
         </is>
       </c>
     </row>
@@ -5517,12 +5517,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>111890</t>
+          <t>106774</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>CARICIADET100G</t>
+          <t>REYPAPELERAPICASSOGR</t>
         </is>
       </c>
     </row>
@@ -5537,12 +5537,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>111891</t>
+          <t>111885</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>RECORDPROCESADORDEAL</t>
+          <t>REYTAPERHERMETICORED</t>
         </is>
       </c>
     </row>
@@ -5557,12 +5557,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>112000</t>
+          <t>111890</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>BALLERINASHDETOXHIER</t>
+          <t>CARICIADET100G</t>
         </is>
       </c>
     </row>
@@ -5577,12 +5577,12 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>106803</t>
+          <t>111891</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>REYCESTOANATOMICOMED</t>
+          <t>RECORDPROCESADORDEAL</t>
         </is>
       </c>
     </row>
@@ -5597,12 +5597,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>106338</t>
+          <t>112000</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>REYCESTOSUPERGIGANTE</t>
+          <t>BALLERINASHDETOXHIER</t>
         </is>
       </c>
     </row>
@@ -5617,12 +5617,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>107816</t>
+          <t>106803</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>REYCOLADORMULTIUSO#0</t>
+          <t>REYCESTOANATOMICOMED</t>
         </is>
       </c>
     </row>
@@ -5637,12 +5637,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>112028</t>
+          <t>106338</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>REYCOMBOROBLERECTANG</t>
+          <t>REYCESTOSUPERGIGANTE</t>
         </is>
       </c>
     </row>
@@ -5657,12 +5657,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>112032</t>
+          <t>107816</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>REYCAJAPANDORA#20(11</t>
+          <t>REYCOLADORMULTIUSO#0</t>
         </is>
       </c>
     </row>
@@ -5677,12 +5677,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>112034</t>
+          <t>112028</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>REYENVASESALSEROUNIV</t>
+          <t>REYCOMBOROBLERECTANG</t>
         </is>
       </c>
     </row>
@@ -5697,12 +5697,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>112035</t>
+          <t>112032</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>REYHIELERAALASKAJUEG</t>
+          <t>REYCAJAPANDORA#20(11</t>
         </is>
       </c>
     </row>
@@ -5717,12 +5717,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>112040</t>
+          <t>112034</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>REYORGANIZADORMULTIU</t>
+          <t>REYENVASESALSEROUNIV</t>
         </is>
       </c>
     </row>
@@ -5737,12 +5737,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>112065</t>
+          <t>112035</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>ILKOSARTENSILVERINDU</t>
+          <t>REYHIELERAALASKAJUEG</t>
         </is>
       </c>
     </row>
@@ -5757,12 +5757,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>101443</t>
+          <t>112040</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>OCUISINEMOLDEREDONDO</t>
+          <t>REYORGANIZADORMULTIU</t>
         </is>
       </c>
     </row>
@@ -5777,12 +5777,12 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>108497</t>
+          <t>112065</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>VINODCOLADERAACEROIN</t>
+          <t>ILKOSARTENSILVERINDU</t>
         </is>
       </c>
     </row>
@@ -5797,12 +5797,12 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>101384</t>
+          <t>101443</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>FACUSASARTENBLACK&amp;SI</t>
+          <t>OCUISINEMOLDEREDONDO</t>
         </is>
       </c>
     </row>
@@ -5812,17 +5812,17 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>NO TIENE ASIGNADO CATEGORÍA VENTAS</t>
+          <t>NO TIENE ASIGNADO PROVEEDOR</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>960047</t>
+          <t>108497</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>GASTOSDESUMINISTROS</t>
+          <t>VINODCOLADERAACEROIN</t>
         </is>
       </c>
     </row>
@@ -5832,17 +5832,17 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>SOLO TIENE TRADUCCIÓN PARA IDIOMA "ES"</t>
+          <t>NO TIENE ASIGNADO PROVEEDOR</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>110695</t>
+          <t>101384</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>MERIAJIPANCA</t>
+          <t>FACUSASARTENBLACK&amp;SI</t>
         </is>
       </c>
     </row>
@@ -5852,17 +5852,17 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>SOLO TIENE TRADUCCIÓN PARA IDIOMA "ES"</t>
+          <t>NO TIENE ASIGNADO CATEGORÍA VENTAS</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>700024</t>
+          <t>960047</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>JABADEBOTELLADECERVE</t>
+          <t>GASTOSDESUMINISTROS</t>
         </is>
       </c>
     </row>
@@ -5877,12 +5877,12 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>700025</t>
+          <t>110695</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>BOTELLADECERVEZARETO</t>
+          <t>MERIAJIPANCA</t>
         </is>
       </c>
     </row>
@@ -5897,12 +5897,12 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>700026</t>
+          <t>700024</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>PARIHUELADEMADERA120</t>
+          <t>JABADEBOTELLADECERVE</t>
         </is>
       </c>
     </row>
@@ -5917,10 +5917,50 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
+          <t>700025</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>BOTELLADECERVEZARETO</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" t="n">
+        <v>269</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>SOLO TIENE TRADUCCIÓN PARA IDIOMA "ES"</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>700026</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>PARIHUELADEMADERA120</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" t="n">
+        <v>270</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>SOLO TIENE TRADUCCIÓN PARA IDIOMA "ES"</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
           <t>112091</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr">
+      <c r="E279" t="inlineStr">
         <is>
           <t>NUTRIBELATRATAMIENTO</t>
         </is>

--- a/temp/ReporteVerificacionProductos.xlsx
+++ b/temp/ReporteVerificacionProductos.xlsx
@@ -491,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:Q279"/>
+  <dimension ref="B1:Q278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="C5" s="9" t="n">
-        <v>45231.71326481344</v>
+        <v>45244.69694649662</v>
       </c>
       <c r="D5" s="5" t="n"/>
     </row>
@@ -1181,12 +1181,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>105176</t>
+          <t>105429</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ALAMOSVINOCABERNETSA</t>
+          <t>BALLERINASHHERBALDOY</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>105429</t>
+          <t>105436</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>BALLERINASHHERBALDOY</t>
+          <t>BALLERINASHS/SALGRAN</t>
         </is>
       </c>
     </row>
@@ -1221,12 +1221,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>105436</t>
+          <t>105872</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>BALLERINASHS/SALGRAN</t>
+          <t>BASAJUEGODECOLADORES</t>
         </is>
       </c>
     </row>
@@ -1241,12 +1241,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>105872</t>
+          <t>106369</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>BASAJUEGODECOLADORES</t>
+          <t>REYBALDECOMERC.1GLC/</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>106369</t>
+          <t>106724</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>REYBALDECOMERC.1GLC/</t>
+          <t>REYMESACUADRARAADA</t>
         </is>
       </c>
     </row>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106724</t>
+          <t>106822</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>REYMESACUADRARAADA</t>
+          <t>REYCOMODAGIGANTE5PIS</t>
         </is>
       </c>
     </row>
@@ -1301,12 +1301,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>106822</t>
+          <t>106824</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>REYCOMODAGIGANTE5PIS</t>
+          <t>REYCOMODAGIGANTE6PIS</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>106824</t>
+          <t>106825</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1341,12 +1341,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>106825</t>
+          <t>106830</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>REYCOMODAGIGANTE6PIS</t>
+          <t>REYCOMODASUPERGIGANT</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1361,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>106830</t>
+          <t>106894</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>REYCOMODASUPERGIGANT</t>
+          <t>ALMENDRAAMERICANA22.</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1381,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>106894</t>
+          <t>106897</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ALMENDRAAMERICANA22.</t>
+          <t>CANELAH1</t>
         </is>
       </c>
     </row>
@@ -1401,12 +1401,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>106897</t>
+          <t>106899</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>CANELAH1</t>
+          <t>CIRUELA30/40SANTISFR</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>106899</t>
+          <t>106900</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CIRUELA30/40SANTISFR</t>
+          <t>CLAVODEOLORDEMADAGAS</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>106900</t>
+          <t>106902</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>CLAVODEOLORDEMADAGAS</t>
+          <t>COMINOMOLIDO</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>106902</t>
+          <t>106905</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>COMINOMOLIDO</t>
+          <t>HOJALAURELESPAÑOL</t>
         </is>
       </c>
     </row>
@@ -1481,12 +1481,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>106905</t>
+          <t>106906</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>HOJALAURELESPAÑOL</t>
+          <t>HONGOSECO</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>106906</t>
+          <t>106907</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>HONGOSECO</t>
+          <t>MANISALADO</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>106907</t>
+          <t>106908</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MANISALADO</t>
+          <t>NUECESPELADAS</t>
         </is>
       </c>
     </row>
@@ -1541,12 +1541,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>106908</t>
+          <t>106909</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>NUECESPELADAS</t>
+          <t>OREGANOMOLIDOPIZZA</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1561,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>106909</t>
+          <t>106910</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>OREGANOMOLIDOPIZZA</t>
+          <t>OREGANOZARANDEADOCHI</t>
         </is>
       </c>
     </row>
@@ -1581,12 +1581,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>106910</t>
+          <t>106913</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>OREGANOZARANDEADOCHI</t>
+          <t>PASASULTANINAGDE/JUM</t>
         </is>
       </c>
     </row>
@@ -1601,12 +1601,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>106913</t>
+          <t>106914</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>PASASULTANINAGDE/JUM</t>
+          <t>PIMIENTANEGRAMOLIDA</t>
         </is>
       </c>
     </row>
@@ -1621,12 +1621,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>106914</t>
+          <t>107037</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>PIMIENTANEGRAMOLIDA</t>
+          <t>OCUISINEMOLDEREDONDO</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1641,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>107037</t>
+          <t>107075</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>OCUISINEMOLDEREDONDO</t>
+          <t>VINODBOLOPROFESIONAL</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1661,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>107075</t>
+          <t>107125</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>VINODBOLOPROFESIONAL</t>
+          <t>FACUSAPINZACH</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1681,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>107125</t>
+          <t>107134</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FACUSAPINZACH</t>
+          <t>FACUSACUCHILLOPAN4M/</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1701,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>107134</t>
+          <t>107135</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FACUSACUCHILLOPAN4M/</t>
+          <t>FACUSAPRENSADORDEPAP</t>
         </is>
       </c>
     </row>
@@ -1721,12 +1721,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>107135</t>
+          <t>107138</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>FACUSAPRENSADORDEPAP</t>
+          <t>FACUSACUCHILLOEXTRAF</t>
         </is>
       </c>
     </row>
@@ -1741,12 +1741,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>107138</t>
+          <t>107145</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FACUSACUCHILLOEXTRAF</t>
+          <t>FACUSACUCHARASPAGUET</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1761,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>107145</t>
+          <t>107153</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>FACUSACUCHARASPAGUET</t>
+          <t>FACUSAHERVIDORINFINI</t>
         </is>
       </c>
     </row>
@@ -1781,12 +1781,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>107153</t>
+          <t>109410</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>FACUSAHERVIDORINFINI</t>
+          <t>FACUSABOLOACEROINOX</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>109410</t>
+          <t>109524</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FACUSABOLOACEROINOX</t>
+          <t>KATABOOM CHICLE SURT</t>
         </is>
       </c>
     </row>
@@ -1821,12 +1821,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>109524</t>
+          <t>109703</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>KATABOOM CHICLE SURT</t>
+          <t>GAMBRINUSFRIJOLENSAL</t>
         </is>
       </c>
     </row>
@@ -1841,12 +1841,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>109703</t>
+          <t>109795</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>GAMBRINUSFRIJOLENSAL</t>
+          <t>DOVEDESODROLLONINSIB</t>
         </is>
       </c>
     </row>
@@ -1956,17 +1956,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ERROR EN UNIDADES DE CONVERSIÓN - U. / 12.0 / U</t>
+          <t>ERROR EN CÓDIGO SUNAT</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>112152</t>
+          <t>110391</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>VESTONLIMPIATAPIZ480</t>
+          <t>FACUSACOMBOPRENSADOR</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>110391</t>
+          <t>111883</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>FACUSACOMBOPRENSADOR</t>
+          <t>NESTLECOBERTURADECHO</t>
         </is>
       </c>
     </row>
@@ -1996,17 +1996,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ERROR EN CÓDIGO SUNAT</t>
+          <t>NO TIENE ASIGNADO PROVEEDOR</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>111883</t>
+          <t>110607</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>NESTLECOBERTURADECHO</t>
+          <t>KRYZPOSNACKSSABORCRE</t>
         </is>
       </c>
     </row>
@@ -2021,12 +2021,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>110607</t>
+          <t>110608</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>KRYZPOSNACKSSABORCRE</t>
+          <t>BARCELORONIMPERIALON</t>
         </is>
       </c>
     </row>
@@ -2041,12 +2041,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>110608</t>
+          <t>110609</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>BARCELORONIMPERIALON</t>
+          <t>BARCELOGRANAÑEJODARK</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2061,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>110609</t>
+          <t>110610</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>BARCELOGRANAÑEJODARK</t>
+          <t>BARCELORONDOMINICANO</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2081,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>110610</t>
+          <t>110611</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>BARCELORONDOMINICANO</t>
+          <t>WHITLEYNEILLVODKA700</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>110611</t>
+          <t>110613</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>WHITLEYNEILLVODKA700</t>
+          <t>KRYZPOSNACKSSABORCRE</t>
         </is>
       </c>
     </row>
@@ -2121,12 +2121,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>110613</t>
+          <t>110614</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>KRYZPOSNACKSSABORCRE</t>
+          <t>FAMILYGUARDAEDESINFE</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>110614</t>
+          <t>110615</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2161,12 +2161,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>110615</t>
+          <t>110616</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>FAMILYGUARDAEDESINFE</t>
+          <t>DONLUCHOGELATINAFRES</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>110616</t>
+          <t>110617</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>DONLUCHOGELATINAFRES</t>
+          <t>DONLUCHOGELATINANARA</t>
         </is>
       </c>
     </row>
@@ -2201,12 +2201,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>110617</t>
+          <t>110618</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>DONLUCHOGELATINANARA</t>
+          <t>DON LUCHO GELATINA P</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>110618</t>
+          <t>110621</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>DON LUCHO GELATINA P</t>
+          <t>REYBALDE1LCTAPAYASAP</t>
         </is>
       </c>
     </row>
@@ -2241,12 +2241,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>110621</t>
+          <t>110626</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>REYBALDE1LCTAPAYASAP</t>
+          <t>MINIGELATINASURTIDAS</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2261,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>110626</t>
+          <t>110628</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MINIGELATINASURTIDAS</t>
+          <t>COLOMBINAGRISSLYGOMI</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>110628</t>
+          <t>108573</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>COLOMBINAGRISSLYGOMI</t>
+          <t>CANASTA BASICA TRUJI</t>
         </is>
       </c>
     </row>
@@ -2301,12 +2301,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>108573</t>
+          <t>108574</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>CANASTA BASICA TRUJI</t>
+          <t>CANASTAFAMILIAR</t>
         </is>
       </c>
     </row>
@@ -2321,12 +2321,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>108574</t>
+          <t>108575</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>CANASTAFAMILIAR</t>
+          <t>CANASTAFAMILIARTRUJI</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>108575</t>
+          <t>108576</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2361,12 +2361,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>108576</t>
+          <t>108577</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>CANASTAFAMILIARTRUJI</t>
+          <t>CANASTAPREMIUTRUJILL</t>
         </is>
       </c>
     </row>
@@ -2381,12 +2381,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>108577</t>
+          <t>108578</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>CANASTAPREMIUTRUJILL</t>
+          <t>CANASTADORADATRUJILL</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2401,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>108578</t>
+          <t>108579</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>CANASTADORADATRUJILL</t>
+          <t>CANASTAPREMIUNTRUJIL</t>
         </is>
       </c>
     </row>
@@ -2421,12 +2421,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>108579</t>
+          <t>108580</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>CANASTAPREMIUNTRUJIL</t>
+          <t>CANASTAFAMILIARDONOF</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>108580</t>
+          <t>108581</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>CANASTAFAMILIARDONOF</t>
+          <t>CANASTAPREMIUNDONOFR</t>
         </is>
       </c>
     </row>
@@ -2461,12 +2461,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>108581</t>
+          <t>108582</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>CANASTAPREMIUNDONOFR</t>
+          <t>CANASTAFAMILIARTODIN</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>108582</t>
+          <t>108583</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>CANASTAFAMILIARTODIN</t>
+          <t>CANASTAPREMIUNTODINN</t>
         </is>
       </c>
     </row>
@@ -2501,12 +2501,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>108583</t>
+          <t>108593</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>CANASTAPREMIUNTODINN</t>
+          <t>TRUJILLOARVEJA500G</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>108593</t>
+          <t>108628</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>TRUJILLOARVEJA500G</t>
+          <t>CANASTAFAMILIARTRUJI</t>
         </is>
       </c>
     </row>
@@ -2541,12 +2541,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>108628</t>
+          <t>108629</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CANASTAFAMILIARTRUJI</t>
+          <t>CANASTAPREMIUMTRUJIL</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>108629</t>
+          <t>108630</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>CANASTAPREMIUMTRUJIL</t>
+          <t>CANASTABASICATRUJILL</t>
         </is>
       </c>
     </row>
@@ -2581,12 +2581,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>108630</t>
+          <t>108699</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>CANASTABASICATRUJILL</t>
+          <t>TRUJILLOHIELOENCUBIT</t>
         </is>
       </c>
     </row>
@@ -2601,12 +2601,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>108699</t>
+          <t>109483</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TRUJILLOHIELOENCUBIT</t>
+          <t>BONIF.CLOROX LEJIA T</t>
         </is>
       </c>
     </row>
@@ -2621,12 +2621,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>109483</t>
+          <t>109484</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>BONIF.CLOROX LEJIA T</t>
+          <t>BONIFCLOROXLEJIATRAD</t>
         </is>
       </c>
     </row>
@@ -2641,12 +2641,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>109484</t>
+          <t>110188</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>BONIFCLOROXLEJIATRAD</t>
+          <t>BONIFTRUJILLOPANETON</t>
         </is>
       </c>
     </row>
@@ -2661,12 +2661,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>110188</t>
+          <t>110215</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>BONIFTRUJILLOPANETON</t>
+          <t>CANASTAPREMIUNTRUJIL</t>
         </is>
       </c>
     </row>
@@ -2681,12 +2681,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>110215</t>
+          <t>104330</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>CANASTAPREMIUNTRUJIL</t>
+          <t>CONCEPTSSOPORTEACRIL</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>104330</t>
+          <t>104333</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -2721,12 +2721,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>104333</t>
+          <t>104338</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>CONCEPTSSOPORTEACRIL</t>
+          <t>SANTINICHRISTMASADOR</t>
         </is>
       </c>
     </row>
@@ -2741,12 +2741,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>104338</t>
+          <t>104348</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>SANTINICHRISTMASADOR</t>
+          <t>CONCEPTSCUADRODECO</t>
         </is>
       </c>
     </row>
@@ -2761,12 +2761,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>104348</t>
+          <t>104349</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>CONCEPTSCUADRODECO</t>
+          <t>CONCEPTSFIG.AFRICANA</t>
         </is>
       </c>
     </row>
@@ -2781,12 +2781,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>104349</t>
+          <t>104354</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>CONCEPTSFIG.AFRICANA</t>
+          <t>CONCEPTSFLORDECORATI</t>
         </is>
       </c>
     </row>
@@ -2801,12 +2801,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>104354</t>
+          <t>104356</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>CONCEPTSFLORDECORATI</t>
+          <t>CONCEPTSPORTARETRATO</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>104356</t>
+          <t>104357</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>CONCEPTSPORTARETRATO</t>
+          <t>CONCEPTSSUJETALIBRO</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>104357</t>
+          <t>105099</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>CONCEPTSSUJETALIBRO</t>
+          <t>BARDINETLICORDEMENTA</t>
         </is>
       </c>
     </row>
@@ -2861,12 +2861,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>105099</t>
+          <t>105100</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>BARDINETLICORDEMENTA</t>
+          <t>CACHAZA51BRAZILLICOR</t>
         </is>
       </c>
     </row>
@@ -2881,12 +2881,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>105100</t>
+          <t>105101</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>CACHAZA51BRAZILLICOR</t>
+          <t>CAMPARIBITTERLICORDE</t>
         </is>
       </c>
     </row>
@@ -2901,12 +2901,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>105101</t>
+          <t>105106</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>CAMPARIBITTERLICORDE</t>
+          <t>SHERIDANSLICORORIGIN</t>
         </is>
       </c>
     </row>
@@ -2921,12 +2921,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>105106</t>
+          <t>105351</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>SHERIDANSLICORORIGIN</t>
+          <t>TRUJILLOFILETEDECABA</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>105351</t>
+          <t>105512</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>TRUJILLOFILETEDECABA</t>
+          <t>REALFILETEATUNAGSINS</t>
         </is>
       </c>
     </row>
@@ -2961,12 +2961,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>105512</t>
+          <t>107001</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>REALFILETEATUNAGSINS</t>
+          <t>CONCEPTSUTENSILIOSPA</t>
         </is>
       </c>
     </row>
@@ -2981,12 +2981,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>107001</t>
+          <t>107013</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>CONCEPTSUTENSILIOSPA</t>
+          <t>C&amp;ICHALTRAMASNEGRO00</t>
         </is>
       </c>
     </row>
@@ -3001,12 +3001,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>107013</t>
+          <t>107522</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>C&amp;ICHALTRAMASNEGRO00</t>
+          <t>CONCEPTSPASTILLERO10</t>
         </is>
       </c>
     </row>
@@ -3021,12 +3021,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>107522</t>
+          <t>107523</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>CONCEPTSPASTILLERO10</t>
+          <t>CONCEPTSFLORERO50CM</t>
         </is>
       </c>
     </row>
@@ -3041,12 +3041,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>107523</t>
+          <t>107525</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>CONCEPTSFLORERO50CM</t>
+          <t>CONCEPTSMANTEQUILLER</t>
         </is>
       </c>
     </row>
@@ -3061,12 +3061,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>107525</t>
+          <t>107707</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>CONCEPTSMANTEQUILLER</t>
+          <t>FREIXENETESPUMANTEM</t>
         </is>
       </c>
     </row>
@@ -3081,12 +3081,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>107707</t>
+          <t>107709</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>FREIXENETESPUMANTEM</t>
+          <t>BIONDIPISCOACHOLADO5</t>
         </is>
       </c>
     </row>
@@ -3101,12 +3101,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>107709</t>
+          <t>107711</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>BIONDIPISCOACHOLADO5</t>
+          <t>BRANDYDEJEREZFUNDADO</t>
         </is>
       </c>
     </row>
@@ -3121,12 +3121,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>107711</t>
+          <t>108008</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>BRANDYDEJEREZFUNDADO</t>
+          <t>BOHEMIA SET COPAS DE</t>
         </is>
       </c>
     </row>
@@ -3141,12 +3141,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>108008</t>
+          <t>108010</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>BOHEMIA SET COPAS DE</t>
+          <t>CONCEPTS PEONIA ROS-</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>108010</t>
+          <t>108012</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>CONCEPTS PEONIA ROS-</t>
+          <t>TOSKANASUJETADORPARA</t>
         </is>
       </c>
     </row>
@@ -3181,12 +3181,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>108012</t>
+          <t>108016</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>TOSKANASUJETADORPARA</t>
+          <t>CILINDROVACIODEALCOH</t>
         </is>
       </c>
     </row>
@@ -3201,12 +3201,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>108016</t>
+          <t>108415</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>CILINDROVACIODEALCOH</t>
+          <t>KANKUNRONDURAZNO1L</t>
         </is>
       </c>
     </row>
@@ -3221,12 +3221,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>108415</t>
+          <t>108420</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>KANKUNRONDURAZNO1L</t>
+          <t>KIEVVODKA1L</t>
         </is>
       </c>
     </row>
@@ -3241,12 +3241,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>108420</t>
+          <t>108445</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>KIEVVODKA1L</t>
+          <t>NESTLECHOCOLATESUBLI</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3261,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>108445</t>
+          <t>108510</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>NESTLECHOCOLATESUBLI</t>
+          <t>FACUSACUCHARASPAGUET</t>
         </is>
       </c>
     </row>
@@ -3281,12 +3281,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>108510</t>
+          <t>108537</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>FACUSACUCHARASPAGUET</t>
+          <t>FACUSACUCHILLODECOCI</t>
         </is>
       </c>
     </row>
@@ -3301,12 +3301,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>108537</t>
+          <t>108553</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>FACUSACUCHILLODECOCI</t>
+          <t>ISANAPALETAPARAPIES</t>
         </is>
       </c>
     </row>
@@ -3321,12 +3321,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>108553</t>
+          <t>108555</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ISANAPALETAPARAPIES</t>
+          <t>NIVEAFORMENSILVERPRO</t>
         </is>
       </c>
     </row>
@@ -3341,12 +3341,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>108555</t>
+          <t>108586</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>NIVEAFORMENSILVERPRO</t>
+          <t>ELCHIMBOTANOARROZNIR</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>108586</t>
+          <t>108632</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ELCHIMBOTANOARROZNIR</t>
+          <t>MR MUSCULO LIQ CITRU</t>
         </is>
       </c>
     </row>
@@ -3381,12 +3381,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>108632</t>
+          <t>108633</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>MR MUSCULO LIQ CITRU</t>
+          <t>NUTRICANALIMBALANCAD</t>
         </is>
       </c>
     </row>
@@ -3401,12 +3401,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>108633</t>
+          <t>108641</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>NUTRICANALIMBALANCAD</t>
+          <t>NESCAFEKIRMA</t>
         </is>
       </c>
     </row>
@@ -3421,12 +3421,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>108641</t>
+          <t>108711</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>NESCAFEKIRMA</t>
+          <t>HELLO KITTY TOALLA H</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>108711</t>
+          <t>108712</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>108712</t>
+          <t>108713</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -3481,12 +3481,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>108713</t>
+          <t>108791</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>HELLO KITTY TOALLA H</t>
+          <t>ETERNAGUANTEANTIDESL</t>
         </is>
       </c>
     </row>
@@ -3501,12 +3501,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>108791</t>
+          <t>108799</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>ETERNAGUANTEANTIDESL</t>
+          <t>PANTENESH+ACRIZOSDEF</t>
         </is>
       </c>
     </row>
@@ -3521,12 +3521,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>108799</t>
+          <t>108800</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>PANTENESH+ACRIZOSDEF</t>
+          <t>PANTENESH+ACRESTAURA</t>
         </is>
       </c>
     </row>
@@ -3541,12 +3541,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>108800</t>
+          <t>108803</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>PANTENESH+ACRESTAURA</t>
+          <t>H&amp;SSHHIDRATACIÓNACEI</t>
         </is>
       </c>
     </row>
@@ -3561,12 +3561,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>108803</t>
+          <t>108834</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>H&amp;SSHHIDRATACIÓNACEI</t>
+          <t>BIOEXPERTSHKERATINA3</t>
         </is>
       </c>
     </row>
@@ -3581,12 +3581,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>108834</t>
+          <t>108835</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>BIOEXPERTSHKERATINA3</t>
+          <t>SAVITALSHMULTIOLEOS5</t>
         </is>
       </c>
     </row>
@@ -3601,12 +3601,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>108835</t>
+          <t>108836</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>SAVITALSHMULTIOLEOS5</t>
+          <t>SEDALSHCARBONACT+PEO</t>
         </is>
       </c>
     </row>
@@ -3621,12 +3621,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>108836</t>
+          <t>108839</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>SEDALSHCARBONACT+PEO</t>
+          <t>SAVITALJABONALMENDRA</t>
         </is>
       </c>
     </row>
@@ -3641,12 +3641,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>108839</t>
+          <t>108879</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>SAVITALJABONALMENDRA</t>
+          <t>YOLEITYOGURTNATURAL1</t>
         </is>
       </c>
     </row>
@@ -3661,12 +3661,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>108879</t>
+          <t>108886</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>YOLEITYOGURTNATURAL1</t>
+          <t>FACUSABLISTERDECUCHI</t>
         </is>
       </c>
     </row>
@@ -3681,12 +3681,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>108886</t>
+          <t>108893</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>FACUSABLISTERDECUCHI</t>
+          <t>FACUSABLISTERDEPIZZA</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3701,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>108893</t>
+          <t>108990</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>FACUSABLISTERDEPIZZA</t>
+          <t>CARTAVIORONBLACK1.75</t>
         </is>
       </c>
     </row>
@@ -3721,12 +3721,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>108990</t>
+          <t>109002</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>CARTAVIORONBLACK1.75</t>
+          <t>TEQUILA1800REPOSADO7</t>
         </is>
       </c>
     </row>
@@ -3741,12 +3741,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>109002</t>
+          <t>109004</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>TEQUILA1800REPOSADO7</t>
+          <t>TEQUILA1800ESSENTIAL</t>
         </is>
       </c>
     </row>
@@ -3761,12 +3761,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>109004</t>
+          <t>109026</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>TEQUILA1800ESSENTIAL</t>
+          <t>REYMESAROBLE80x80</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>109026</t>
+          <t>109154</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>REYMESAROBLE80x80</t>
+          <t>ILKOSARTENWOKANTIADH</t>
         </is>
       </c>
     </row>
@@ -3801,12 +3801,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>109154</t>
+          <t>109189</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>ILKOSARTENWOKANTIADH</t>
+          <t>FACUSA SARTEN WOK NO</t>
         </is>
       </c>
     </row>
@@ -3821,12 +3821,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>109189</t>
+          <t>109191</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>FACUSA SARTEN WOK NO</t>
+          <t>FACUSA BATIDOR ACERO</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>109191</t>
+          <t>109267</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>FACUSA BATIDOR ACERO</t>
+          <t>ILKOESPATULAPESCADOS</t>
         </is>
       </c>
     </row>
@@ -3861,12 +3861,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>109267</t>
+          <t>109268</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>ILKOESPATULAPESCADOS</t>
+          <t>ILKOMACHACADORDEPAPA</t>
         </is>
       </c>
     </row>
@@ -3881,12 +3881,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>109268</t>
+          <t>109269</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>ILKOMACHACADORDEPAPA</t>
+          <t>ILKOPALETAMULTIUSOSI</t>
         </is>
       </c>
     </row>
@@ -3901,12 +3901,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>109269</t>
+          <t>109270</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>ILKOPALETAMULTIUSOSI</t>
+          <t>ILKOPORCIONADORDEHEL</t>
         </is>
       </c>
     </row>
@@ -3921,12 +3921,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>109270</t>
+          <t>109271</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>ILKOPORCIONADORDEHEL</t>
+          <t>ILKORALLADORMANUALNE</t>
         </is>
       </c>
     </row>
@@ -3941,12 +3941,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>109271</t>
+          <t>109272</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>ILKORALLADORMANUALNE</t>
+          <t>ILKOMATDESILICONAREP</t>
         </is>
       </c>
     </row>
@@ -3961,12 +3961,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>109272</t>
+          <t>109815</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>ILKOMATDESILICONAREP</t>
+          <t>WINTERSCOBERTURADECH</t>
         </is>
       </c>
     </row>
@@ -3981,12 +3981,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>109815</t>
+          <t>109829</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>WINTERSCOBERTURADECH</t>
+          <t>CAMPONUESTROLECHEFOR</t>
         </is>
       </c>
     </row>
@@ -4001,12 +4001,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>109829</t>
+          <t>110155</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>CAMPONUESTROLECHEFOR</t>
+          <t>KUSIMERMELADADEMARAC</t>
         </is>
       </c>
     </row>
@@ -4021,12 +4021,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>110155</t>
+          <t>110392</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>KUSIMERMELADADEMARAC</t>
+          <t>FACUSACOMBOPRENSADOR</t>
         </is>
       </c>
     </row>
@@ -4041,12 +4041,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>110392</t>
+          <t>110396</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>FACUSACOMBOPRENSADOR</t>
+          <t>FACUSAJGODESARTENNOV</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4061,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>110396</t>
+          <t>700018</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>FACUSAJGODESARTENNOV</t>
+          <t>BATERIADELITIO36V</t>
         </is>
       </c>
     </row>
@@ -4081,12 +4081,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>700018</t>
+          <t>960047</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>BATERIADELITIO36V</t>
+          <t>GASTOSDESUMINISTROS</t>
         </is>
       </c>
     </row>
@@ -4101,12 +4101,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>960047</t>
+          <t>110629</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>GASTOSDESUMINISTROS</t>
+          <t>GLORIAYOGURTYOGUITOF</t>
         </is>
       </c>
     </row>
@@ -4121,12 +4121,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>110629</t>
+          <t>110630</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>GLORIAYOGURTYOGUITOF</t>
+          <t>GLORIAYOGURTYOGUITOV</t>
         </is>
       </c>
     </row>
@@ -4141,12 +4141,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>110630</t>
+          <t>110631</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>GLORIAYOGURTYOGUITOV</t>
+          <t>GLORIAYOGURTGRIEGOFR</t>
         </is>
       </c>
     </row>
@@ -4161,12 +4161,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>110631</t>
+          <t>110632</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>GLORIAYOGURTGRIEGOFR</t>
+          <t>GLORIAYOGURTGRIEGONA</t>
         </is>
       </c>
     </row>
@@ -4181,12 +4181,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>110632</t>
+          <t>101125</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>GLORIAYOGURTGRIEGONA</t>
+          <t>ADAMSBUBBALOOZOMBI70</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>101125</t>
+          <t>101129</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>ADAMSBUBBALOOZOMBI70</t>
+          <t>CLORETSCARAMELOMINTS</t>
         </is>
       </c>
     </row>
@@ -4221,12 +4221,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>101129</t>
+          <t>102117</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>CLORETSCARAMELOMINTS</t>
+          <t>GLORIABEBIDADURAZNO1</t>
         </is>
       </c>
     </row>
@@ -4241,12 +4241,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>102117</t>
+          <t>102506</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>GLORIABEBIDADURAZNO1</t>
+          <t>VIRUTEXBOLSAPBASURA1</t>
         </is>
       </c>
     </row>
@@ -4261,12 +4261,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>102506</t>
+          <t>103854</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>VIRUTEXBOLSAPBASURA1</t>
+          <t>HUGGIESPAÑALNATURALC</t>
         </is>
       </c>
     </row>
@@ -4281,12 +4281,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>103854</t>
+          <t>106149</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>HUGGIESPAÑALNATURALC</t>
+          <t>SEDALSHBOMBAARGAN340</t>
         </is>
       </c>
     </row>
@@ -4301,12 +4301,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>106149</t>
+          <t>106166</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>SEDALSHBOMBAARGAN340</t>
+          <t>SEDALSH+ACCERAMIDAS3</t>
         </is>
       </c>
     </row>
@@ -4321,12 +4321,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>106166</t>
+          <t>106200</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>SEDALSH+ACCERAMIDAS3</t>
+          <t>MCCOLLINSFILTRANTETE</t>
         </is>
       </c>
     </row>
@@ -4341,12 +4341,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>106200</t>
+          <t>106408</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>MCCOLLINSFILTRANTETE</t>
+          <t>REYCUBIERTOSPARAENSA</t>
         </is>
       </c>
     </row>
@@ -4361,12 +4361,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>106408</t>
+          <t>106552</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>REYCUBIERTOSPARAENSA</t>
+          <t>REYTAPERBIOFOODRECTD</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4381,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>106552</t>
+          <t>106807</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>REYTAPERBIOFOODRECTD</t>
+          <t>REYCESTOFRESH</t>
         </is>
       </c>
     </row>
@@ -4401,12 +4401,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>106807</t>
+          <t>107787</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>REYCESTOFRESH</t>
+          <t>SEDALSHAMPOORIZOSDEF</t>
         </is>
       </c>
     </row>
@@ -4421,12 +4421,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>107787</t>
+          <t>108117</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SEDALSHAMPOORIZOSDEF</t>
+          <t>ILKOPELADORVERTICALB</t>
         </is>
       </c>
     </row>
@@ -4441,12 +4441,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>108117</t>
+          <t>108597</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ILKOPELADORVERTICALB</t>
+          <t>LAIVELECHECHIQUITARR</t>
         </is>
       </c>
     </row>
@@ -4461,12 +4461,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>108597</t>
+          <t>110635</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>LAIVELECHECHIQUITARR</t>
+          <t>UMSHAESENCIADEVAINIL</t>
         </is>
       </c>
     </row>
@@ -4481,12 +4481,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>110635</t>
+          <t>110637</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>UMSHAESENCIADEVAINIL</t>
+          <t>TAZZLIMPIATODOBEBE90</t>
         </is>
       </c>
     </row>
@@ -4501,12 +4501,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>110637</t>
+          <t>110639</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>TAZZLIMPIATODOBEBE90</t>
+          <t>LUAALCOHOLENGEL1L</t>
         </is>
       </c>
     </row>
@@ -4521,12 +4521,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>110639</t>
+          <t>110640</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>LUAALCOHOLENGEL1L</t>
+          <t>MONCLERBIALCOHOLENGE</t>
         </is>
       </c>
     </row>
@@ -4541,12 +4541,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>110640</t>
+          <t>110641</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>MONCLERBIALCOHOLENGE</t>
+          <t>LÚA JABON LIQUIDO DE</t>
         </is>
       </c>
     </row>
@@ -4561,12 +4561,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>110641</t>
+          <t>110642</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>LÚA JABON LIQUIDO DE</t>
+          <t>LÚAJABONLIQUIDODETOC</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>110642</t>
+          <t>110643</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -4601,12 +4601,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>110643</t>
+          <t>110644</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>LÚAJABONLIQUIDODETOC</t>
+          <t>VESTONSILICONAAUTOBR</t>
         </is>
       </c>
     </row>
@@ -4621,14 +4621,10 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>110644</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>VESTONSILICONAAUTOBR</t>
-        </is>
-      </c>
+          <t>110645</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="B213" t="n">
@@ -4641,10 +4637,14 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>110645</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr"/>
+          <t>110646</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>VESTONCREMALIMPIADOR</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="B214" t="n">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>110646</t>
+          <t>110647</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -4677,12 +4677,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>110647</t>
+          <t>110648</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>VESTONCREMALIMPIADOR</t>
+          <t>SANTIAGO BETUN LIQUI</t>
         </is>
       </c>
     </row>
@@ -4697,12 +4697,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>110648</t>
+          <t>110649</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>SANTIAGO BETUN LIQUI</t>
+          <t>VESTONRENOVADORDENEU</t>
         </is>
       </c>
     </row>
@@ -4717,12 +4717,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>110649</t>
+          <t>110650</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>VESTONRENOVADORDENEU</t>
+          <t>VESTONSILICONACRISTA</t>
         </is>
       </c>
     </row>
@@ -4737,12 +4737,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>110650</t>
+          <t>110651</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>VESTONSILICONACRISTA</t>
+          <t>VESTONSHAMPO4000ML</t>
         </is>
       </c>
     </row>
@@ -4757,12 +4757,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>110651</t>
+          <t>110652</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>VESTONSHAMPO4000ML</t>
+          <t>VESTONSILICONAAUTOBR</t>
         </is>
       </c>
     </row>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>110652</t>
+          <t>110653</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -4797,12 +4797,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>110653</t>
+          <t>104844</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>VESTONSILICONAAUTOBR</t>
+          <t>HE&amp;SSHOLDSPICE18ML</t>
         </is>
       </c>
     </row>
@@ -4817,12 +4817,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>104844</t>
+          <t>107792</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>HE&amp;SSHOLDSPICE18ML</t>
+          <t>AXEDEODARKTEMPTATION</t>
         </is>
       </c>
     </row>
@@ -4837,12 +4837,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>107792</t>
+          <t>109732</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>AXEDEODARKTEMPTATION</t>
+          <t>CARIBUCEREALBOLITASS</t>
         </is>
       </c>
     </row>
@@ -4857,12 +4857,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>109732</t>
+          <t>101373</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>CARIBUCEREALBOLITASS</t>
+          <t>ELOLIVARADEREZOCASER</t>
         </is>
       </c>
     </row>
@@ -4877,12 +4877,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>101373</t>
+          <t>110668</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>ELOLIVARADEREZOCASER</t>
+          <t>MOLITALIARAVIOLICARN</t>
         </is>
       </c>
     </row>
@@ -4897,12 +4897,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>110668</t>
+          <t>110675</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>MOLITALIARAVIOLICARN</t>
+          <t>NESCAFEDESCAFEINADOD</t>
         </is>
       </c>
     </row>
@@ -4917,12 +4917,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>110675</t>
+          <t>110678</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>NESCAFEDESCAFEINADOD</t>
+          <t>HUGGIESTOALLITASHUME</t>
         </is>
       </c>
     </row>
@@ -4937,12 +4937,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>110678</t>
+          <t>110692</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>HUGGIESTOALLITASHUME</t>
+          <t>FACUSATERMOSIFONDECO</t>
         </is>
       </c>
     </row>
@@ -4957,12 +4957,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>110692</t>
+          <t>110694</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>FACUSATERMOSIFONDECO</t>
+          <t>MOLITALIACONCENTRADO</t>
         </is>
       </c>
     </row>
@@ -4977,12 +4977,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>110694</t>
+          <t>107396</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>MOLITALIACONCENTRADO</t>
+          <t>COLOMBINAPIAZZAVAINI</t>
         </is>
       </c>
     </row>
@@ -4997,12 +4997,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>107396</t>
+          <t>110726</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>COLOMBINAPIAZZAVAINI</t>
+          <t>OTTOKUNZJAMÓNPIZZAED</t>
         </is>
       </c>
     </row>
@@ -5017,12 +5017,12 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>110726</t>
+          <t>110728</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>OTTOKUNZJAMÓNPIZZAED</t>
+          <t>OTTOKUNZLOMOAHUMADO1</t>
         </is>
       </c>
     </row>
@@ -5037,12 +5037,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>110728</t>
+          <t>110761</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>OTTOKUNZLOMOAHUMADO1</t>
+          <t>SCOTCHBRITEGUANTETRA</t>
         </is>
       </c>
     </row>
@@ -5057,12 +5057,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>110761</t>
+          <t>110762</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>SCOTCHBRITEGUANTETRA</t>
+          <t>SCOTCHBRITEPAÑOSECAT</t>
         </is>
       </c>
     </row>
@@ -5077,12 +5077,12 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>110762</t>
+          <t>110829</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>SCOTCHBRITEPAÑOSECAT</t>
+          <t>VASOAMASSADINHOJUGO(</t>
         </is>
       </c>
     </row>
@@ -5097,12 +5097,12 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>110829</t>
+          <t>110870</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>VASOAMASSADINHOJUGO(</t>
+          <t>FUTURATERMOSTONE1LT(</t>
         </is>
       </c>
     </row>
@@ -5117,12 +5117,12 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>110870</t>
+          <t>110917</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>FUTURATERMOSTONE1LT(</t>
+          <t>ARCORHALLOWEENCALABA</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>110917</t>
+          <t>110916</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -5157,12 +5157,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>110916</t>
+          <t>110921</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>ARCORHALLOWEENCALABA</t>
+          <t>ARCORMASTICABLESHALL</t>
         </is>
       </c>
     </row>
@@ -5177,12 +5177,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>110921</t>
+          <t>110977</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>ARCORMASTICABLESHALL</t>
+          <t>REYCUCHARONCEREALES</t>
         </is>
       </c>
     </row>
@@ -5197,12 +5197,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>110977</t>
+          <t>111013</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>REYCUCHARONCEREALES</t>
+          <t>DEOPIESANTIBACTERIAL</t>
         </is>
       </c>
     </row>
@@ -5217,12 +5217,12 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>106544</t>
+          <t>111102</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>REYTAPERBIOFOODCUADD</t>
+          <t>EGOGELPEINARULTRAINT</t>
         </is>
       </c>
     </row>
@@ -5237,12 +5237,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>111013</t>
+          <t>700024</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>DEOPIESANTIBACTERIAL</t>
+          <t>JABADEBOTELLADECERVE</t>
         </is>
       </c>
     </row>
@@ -5257,12 +5257,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>111102</t>
+          <t>700025</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>EGOGELPEINARULTRAINT</t>
+          <t>BOTELLADECERVEZARETO</t>
         </is>
       </c>
     </row>
@@ -5277,12 +5277,12 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>700024</t>
+          <t>107167</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>JABADEBOTELLADECERVE</t>
+          <t>LENTEJOROUGHRIDER(CO</t>
         </is>
       </c>
     </row>
@@ -5297,12 +5297,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>700025</t>
+          <t>100919</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>BOTELLADECERVEZARETO</t>
+          <t>TODINNOPANETON+TODIN</t>
         </is>
       </c>
     </row>
@@ -5317,12 +5317,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>107167</t>
+          <t>111166</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>LENTEJOROUGHRIDER(CO</t>
+          <t>RECORDEXPRIMIDORDECI</t>
         </is>
       </c>
     </row>
@@ -5337,12 +5337,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>100919</t>
+          <t>111208</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>TODINNOPANETON+TODIN</t>
+          <t>AMBROSOLIGOMITASAMBR</t>
         </is>
       </c>
     </row>
@@ -5357,12 +5357,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>111166</t>
+          <t>111232</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>RECORDEXPRIMIDORDECI</t>
+          <t>AGUCOLADOSFRUTASTROP</t>
         </is>
       </c>
     </row>
@@ -5377,12 +5377,12 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>111208</t>
+          <t>111386</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>AMBROSOLIGOMITASAMBR</t>
+          <t>PRIDEREVITALIZAAEROS</t>
         </is>
       </c>
     </row>
@@ -5397,12 +5397,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>111232</t>
+          <t>111448</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>AGUCOLADOSFRUTASTROP</t>
+          <t>RECORDJUEGO4TAZONES1</t>
         </is>
       </c>
     </row>
@@ -5417,12 +5417,12 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>111386</t>
+          <t>109184</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>PRIDEREVITALIZAAEROS</t>
+          <t>FIGUERIALFAJORERESES</t>
         </is>
       </c>
     </row>
@@ -5437,12 +5437,12 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>111448</t>
+          <t>105805</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>RECORDJUEGO4TAZONES1</t>
+          <t>BASACOLADORANATOMICO</t>
         </is>
       </c>
     </row>
@@ -5457,12 +5457,12 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>109184</t>
+          <t>111886</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>FIGUERIALFAJORERESES</t>
+          <t>KOTEXTOAHIGNOCTURNA2</t>
         </is>
       </c>
     </row>
@@ -5477,12 +5477,12 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>105805</t>
+          <t>106774</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>BASACOLADORANATOMICO</t>
+          <t>REYPAPELERAPICASSOGR</t>
         </is>
       </c>
     </row>
@@ -5497,12 +5497,12 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>111886</t>
+          <t>111885</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>KOTEXTOAHIGNOCTURNA2</t>
+          <t>REYTAPERHERMETICORED</t>
         </is>
       </c>
     </row>
@@ -5517,12 +5517,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>106774</t>
+          <t>111890</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>REYPAPELERAPICASSOGR</t>
+          <t>CARICIADET100G</t>
         </is>
       </c>
     </row>
@@ -5537,12 +5537,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>111885</t>
+          <t>111891</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>REYTAPERHERMETICORED</t>
+          <t>RECORDPROCESADORDEAL</t>
         </is>
       </c>
     </row>
@@ -5557,12 +5557,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>111890</t>
+          <t>112000</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>CARICIADET100G</t>
+          <t>BALLERINASHDETOXHIER</t>
         </is>
       </c>
     </row>
@@ -5577,12 +5577,12 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>111891</t>
+          <t>106803</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>RECORDPROCESADORDEAL</t>
+          <t>REYCESTOANATOMICOMED</t>
         </is>
       </c>
     </row>
@@ -5597,12 +5597,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>112000</t>
+          <t>106338</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>BALLERINASHDETOXHIER</t>
+          <t>REYCESTOSUPERGIGANTE</t>
         </is>
       </c>
     </row>
@@ -5617,12 +5617,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>106803</t>
+          <t>107816</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>REYCESTOANATOMICOMED</t>
+          <t>REYCOLADORMULTIUSO#0</t>
         </is>
       </c>
     </row>
@@ -5637,12 +5637,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>106338</t>
+          <t>112028</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>REYCESTOSUPERGIGANTE</t>
+          <t>REYCOMBOROBLERECTANG</t>
         </is>
       </c>
     </row>
@@ -5657,12 +5657,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>107816</t>
+          <t>112032</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>REYCOLADORMULTIUSO#0</t>
+          <t>REYCAJAPANDORA#20(11</t>
         </is>
       </c>
     </row>
@@ -5677,12 +5677,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>112028</t>
+          <t>112034</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>REYCOMBOROBLERECTANG</t>
+          <t>REYENVASESALSEROUNIV</t>
         </is>
       </c>
     </row>
@@ -5697,12 +5697,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>112032</t>
+          <t>112035</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>REYCAJAPANDORA#20(11</t>
+          <t>REYHIELERAALASKAJUEG</t>
         </is>
       </c>
     </row>
@@ -5717,12 +5717,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>112034</t>
+          <t>112040</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>REYENVASESALSEROUNIV</t>
+          <t>REYORGANIZADORMULTIU</t>
         </is>
       </c>
     </row>
@@ -5737,12 +5737,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>112035</t>
+          <t>112065</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>REYHIELERAALASKAJUEG</t>
+          <t>ILKOSARTENSILVERINDU</t>
         </is>
       </c>
     </row>
@@ -5757,12 +5757,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>112040</t>
+          <t>101443</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>REYORGANIZADORMULTIU</t>
+          <t>OCUISINEMOLDEREDONDO</t>
         </is>
       </c>
     </row>
@@ -5777,12 +5777,12 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>112065</t>
+          <t>108497</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>ILKOSARTENSILVERINDU</t>
+          <t>VINODCOLADERAACEROIN</t>
         </is>
       </c>
     </row>
@@ -5797,12 +5797,12 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>101443</t>
+          <t>101384</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>OCUISINEMOLDEREDONDO</t>
+          <t>FACUSASARTENBLACK&amp;SI</t>
         </is>
       </c>
     </row>
@@ -5812,17 +5812,17 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>NO TIENE ASIGNADO PROVEEDOR</t>
+          <t>NO TIENE ASIGNADO CATEGORÍA VENTAS</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>108497</t>
+          <t>960047</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>VINODCOLADERAACEROIN</t>
+          <t>GASTOSDESUMINISTROS</t>
         </is>
       </c>
     </row>
@@ -5832,17 +5832,17 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>NO TIENE ASIGNADO PROVEEDOR</t>
+          <t>SOLO TIENE TRADUCCIÓN PARA IDIOMA "ES"</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>101384</t>
+          <t>110695</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>FACUSASARTENBLACK&amp;SI</t>
+          <t>MERIAJIPANCA</t>
         </is>
       </c>
     </row>
@@ -5852,17 +5852,17 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>NO TIENE ASIGNADO CATEGORÍA VENTAS</t>
+          <t>SOLO TIENE TRADUCCIÓN PARA IDIOMA "ES"</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>960047</t>
+          <t>700024</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>GASTOSDESUMINISTROS</t>
+          <t>JABADEBOTELLADECERVE</t>
         </is>
       </c>
     </row>
@@ -5877,12 +5877,12 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>110695</t>
+          <t>700025</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>MERIAJIPANCA</t>
+          <t>BOTELLADECERVEZARETO</t>
         </is>
       </c>
     </row>
@@ -5897,12 +5897,12 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>700024</t>
+          <t>700026</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>JABADEBOTELLADECERVE</t>
+          <t>PARIHUELADEMADERA120</t>
         </is>
       </c>
     </row>
@@ -5917,12 +5917,12 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>700025</t>
+          <t>112091</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>BOTELLADECERVEZARETO</t>
+          <t>NUTRIBELATRATAMIENTO</t>
         </is>
       </c>
     </row>
@@ -5937,32 +5937,12 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>700026</t>
+          <t>112183</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>PARIHUELADEMADERA120</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="B279" t="n">
-        <v>270</v>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>SOLO TIENE TRADUCCIÓN PARA IDIOMA "ES"</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>112091</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>NUTRIBELATRATAMIENTO</t>
+          <t>NESTLECHOCOLATE</t>
         </is>
       </c>
     </row>

--- a/temp/ReporteVerificacionProductos.xlsx
+++ b/temp/ReporteVerificacionProductos.xlsx
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="C5" s="9" t="n">
-        <v>45244.69694649662</v>
+        <v>45244.71406586522</v>
       </c>
       <c r="D5" s="5" t="n"/>
     </row>
